--- a/history.xlsx
+++ b/history.xlsx
@@ -475,7 +475,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AG117"/>
+  <dimension ref="A1:AK129"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -639,6 +639,26 @@
           <t>10-22</t>
         </is>
       </c>
+      <c r="AH1" t="inlineStr">
+        <is>
+          <t>10-25</t>
+        </is>
+      </c>
+      <c r="AI1" t="inlineStr">
+        <is>
+          <t>10-26</t>
+        </is>
+      </c>
+      <c r="AJ1" t="inlineStr">
+        <is>
+          <t>10-27</t>
+        </is>
+      </c>
+      <c r="AK1" t="inlineStr">
+        <is>
+          <t>10-28</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -806,6 +826,26 @@
           <t>3.4335</t>
         </is>
       </c>
+      <c r="AH2" s="6" t="inlineStr">
+        <is>
+          <t>-9.9585</t>
+        </is>
+      </c>
+      <c r="AI2" s="4" t="inlineStr">
+        <is>
+          <t>-7.6805</t>
+        </is>
+      </c>
+      <c r="AJ2" s="8" t="inlineStr">
+        <is>
+          <t>0.6656</t>
+        </is>
+      </c>
+      <c r="AK2" s="7" t="inlineStr">
+        <is>
+          <t>-2.9752</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -973,6 +1013,26 @@
           <t>2.1951</t>
         </is>
       </c>
+      <c r="AH3" s="2" t="inlineStr">
+        <is>
+          <t>-0.358</t>
+        </is>
+      </c>
+      <c r="AI3" s="8" t="inlineStr">
+        <is>
+          <t>1.497</t>
+        </is>
+      </c>
+      <c r="AJ3" s="3" t="inlineStr">
+        <is>
+          <t>10.0295</t>
+        </is>
+      </c>
+      <c r="AK3" s="6" t="inlineStr">
+        <is>
+          <t>-9.9732</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -1140,6 +1200,26 @@
           <t>-5.343</t>
         </is>
       </c>
+      <c r="AH4" s="1" t="inlineStr">
+        <is>
+          <t>4.5296</t>
+        </is>
+      </c>
+      <c r="AI4" s="7" t="inlineStr">
+        <is>
+          <t>-3.8667</t>
+        </is>
+      </c>
+      <c r="AJ4" s="3" t="inlineStr">
+        <is>
+          <t>9.9861</t>
+        </is>
+      </c>
+      <c r="AK4" s="4" t="inlineStr">
+        <is>
+          <t>-5.2333</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -1307,6 +1387,26 @@
           <t>-4.0798</t>
         </is>
       </c>
+      <c r="AH5" s="5" t="inlineStr">
+        <is>
+          <t>5.1985</t>
+        </is>
+      </c>
+      <c r="AI5" s="7" t="inlineStr">
+        <is>
+          <t>-2.336</t>
+        </is>
+      </c>
+      <c r="AJ5" s="3" t="inlineStr">
+        <is>
+          <t>10.0276</t>
+        </is>
+      </c>
+      <c r="AK5" s="7" t="inlineStr">
+        <is>
+          <t>-2.3411</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -1474,6 +1574,26 @@
           <t>-3.8348</t>
         </is>
       </c>
+      <c r="AH6" s="1" t="inlineStr">
+        <is>
+          <t>1.5337</t>
+        </is>
+      </c>
+      <c r="AI6" s="2" t="inlineStr">
+        <is>
+          <t>-0.6042</t>
+        </is>
+      </c>
+      <c r="AJ6" s="7" t="inlineStr">
+        <is>
+          <t>-3.0395</t>
+        </is>
+      </c>
+      <c r="AK6" s="7" t="inlineStr">
+        <is>
+          <t>-4.3887</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -1641,6 +1761,26 @@
           <t>-8.6486</t>
         </is>
       </c>
+      <c r="AH7" s="1" t="inlineStr">
+        <is>
+          <t>3.1065</t>
+        </is>
+      </c>
+      <c r="AI7" s="7" t="inlineStr">
+        <is>
+          <t>-2.0086</t>
+        </is>
+      </c>
+      <c r="AJ7" s="7" t="inlineStr">
+        <is>
+          <t>-2.1962</t>
+        </is>
+      </c>
+      <c r="AK7" s="7" t="inlineStr">
+        <is>
+          <t>-3.8922</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -1808,6 +1948,26 @@
           <t>-4.193</t>
         </is>
       </c>
+      <c r="AH8" s="8" t="inlineStr">
+        <is>
+          <t>0.9909</t>
+        </is>
+      </c>
+      <c r="AI8" s="2" t="inlineStr">
+        <is>
+          <t>-0.4906</t>
+        </is>
+      </c>
+      <c r="AJ8" s="7" t="inlineStr">
+        <is>
+          <t>-2.7938</t>
+        </is>
+      </c>
+      <c r="AK8" s="7" t="inlineStr">
+        <is>
+          <t>-2.4937</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -1975,6 +2135,26 @@
           <t>-2.2388</t>
         </is>
       </c>
+      <c r="AH9" s="8" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="AI9" s="8" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="AJ9" s="7" t="inlineStr">
+        <is>
+          <t>-3.5623</t>
+        </is>
+      </c>
+      <c r="AK9" s="2" t="inlineStr">
+        <is>
+          <t>-1.3193</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -2142,6 +2322,26 @@
           <t>-4.7481</t>
         </is>
       </c>
+      <c r="AH10" s="1" t="inlineStr">
+        <is>
+          <t>2.645</t>
+        </is>
+      </c>
+      <c r="AI10" s="7" t="inlineStr">
+        <is>
+          <t>-3.0723</t>
+        </is>
+      </c>
+      <c r="AJ10" s="6" t="inlineStr">
+        <is>
+          <t>-10.0204</t>
+        </is>
+      </c>
+      <c r="AK10" s="7" t="inlineStr">
+        <is>
+          <t>-2.2159</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -2309,6 +2509,26 @@
           <t>0.33</t>
         </is>
       </c>
+      <c r="AH11" s="8" t="inlineStr">
+        <is>
+          <t>0.1645</t>
+        </is>
+      </c>
+      <c r="AI11" s="7" t="inlineStr">
+        <is>
+          <t>-3.2841</t>
+        </is>
+      </c>
+      <c r="AJ11" s="7" t="inlineStr">
+        <is>
+          <t>-2.3769</t>
+        </is>
+      </c>
+      <c r="AK11" s="8" t="inlineStr">
+        <is>
+          <t>0.1739</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -2476,6 +2696,26 @@
           <t>-5.0818</t>
         </is>
       </c>
+      <c r="AH12" s="1" t="inlineStr">
+        <is>
+          <t>1.5426</t>
+        </is>
+      </c>
+      <c r="AI12" s="1" t="inlineStr">
+        <is>
+          <t>1.7873</t>
+        </is>
+      </c>
+      <c r="AJ12" s="7" t="inlineStr">
+        <is>
+          <t>-2.1071</t>
+        </is>
+      </c>
+      <c r="AK12" s="7" t="inlineStr">
+        <is>
+          <t>-4.574</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -2643,6 +2883,26 @@
           <t>-5.4198</t>
         </is>
       </c>
+      <c r="AH13" s="5" t="inlineStr">
+        <is>
+          <t>8.3146</t>
+        </is>
+      </c>
+      <c r="AI13" s="3" t="inlineStr">
+        <is>
+          <t>9.9585</t>
+        </is>
+      </c>
+      <c r="AJ13" s="4" t="inlineStr">
+        <is>
+          <t>-8.3019</t>
+        </is>
+      </c>
+      <c r="AK13" s="4" t="inlineStr">
+        <is>
+          <t>-7.0988</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -2810,6 +3070,26 @@
           <t>-2.3129</t>
         </is>
       </c>
+      <c r="AH14" s="5" t="inlineStr">
+        <is>
+          <t>5.2925</t>
+        </is>
+      </c>
+      <c r="AI14" s="7" t="inlineStr">
+        <is>
+          <t>-1.8519</t>
+        </is>
+      </c>
+      <c r="AJ14" s="8" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="AK14" s="8" t="inlineStr">
+        <is>
+          <t>0.9434</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -2977,6 +3257,26 @@
           <t>-5.4247</t>
         </is>
       </c>
+      <c r="AH15" s="1" t="inlineStr">
+        <is>
+          <t>2.2862</t>
+        </is>
+      </c>
+      <c r="AI15" s="1" t="inlineStr">
+        <is>
+          <t>3.1531</t>
+        </is>
+      </c>
+      <c r="AJ15" s="7" t="inlineStr">
+        <is>
+          <t>-2.8245</t>
+        </is>
+      </c>
+      <c r="AK15" s="6" t="inlineStr">
+        <is>
+          <t>-9.556</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -3144,6 +3444,26 @@
           <t>-0.8186</t>
         </is>
       </c>
+      <c r="AH16" s="8" t="inlineStr">
+        <is>
+          <t>0.6878</t>
+        </is>
+      </c>
+      <c r="AI16" s="1" t="inlineStr">
+        <is>
+          <t>4.5993</t>
+        </is>
+      </c>
+      <c r="AJ16" s="8" t="inlineStr">
+        <is>
+          <t>0.6095</t>
+        </is>
+      </c>
+      <c r="AK16" s="4" t="inlineStr">
+        <is>
+          <t>-6.3176</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -3311,6 +3631,26 @@
           <t>-1.7628</t>
         </is>
       </c>
+      <c r="AH17" s="8" t="inlineStr">
+        <is>
+          <t>1.1419</t>
+        </is>
+      </c>
+      <c r="AI17" s="7" t="inlineStr">
+        <is>
+          <t>-1.9355</t>
+        </is>
+      </c>
+      <c r="AJ17" s="2" t="inlineStr">
+        <is>
+          <t>-0.1645</t>
+        </is>
+      </c>
+      <c r="AK17" s="2" t="inlineStr">
+        <is>
+          <t>-0.1647</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -3478,6 +3818,26 @@
           <t>2.677</t>
         </is>
       </c>
+      <c r="AH18" s="1" t="inlineStr">
+        <is>
+          <t>2.1867</t>
+        </is>
+      </c>
+      <c r="AI18" s="8" t="inlineStr">
+        <is>
+          <t>0.5761</t>
+        </is>
+      </c>
+      <c r="AJ18" s="1" t="inlineStr">
+        <is>
+          <t>1.5957</t>
+        </is>
+      </c>
+      <c r="AK18" s="6" t="inlineStr">
+        <is>
+          <t>-9.9879</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -3645,6 +4005,26 @@
           <t>-4.6546</t>
         </is>
       </c>
+      <c r="AH19" s="3" t="inlineStr">
+        <is>
+          <t>9.9961</t>
+        </is>
+      </c>
+      <c r="AI19" s="7" t="inlineStr">
+        <is>
+          <t>-3.8394</t>
+        </is>
+      </c>
+      <c r="AJ19" s="1" t="inlineStr">
+        <is>
+          <t>3.2967</t>
+        </is>
+      </c>
+      <c r="AK19" s="4" t="inlineStr">
+        <is>
+          <t>-7.4823</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -3812,6 +4192,26 @@
           <t>-4.3614</t>
         </is>
       </c>
+      <c r="AH20" s="1" t="inlineStr">
+        <is>
+          <t>3.2573</t>
+        </is>
+      </c>
+      <c r="AI20" s="8" t="inlineStr">
+        <is>
+          <t>0.4206</t>
+        </is>
+      </c>
+      <c r="AJ20" s="7" t="inlineStr">
+        <is>
+          <t>-2.0942</t>
+        </is>
+      </c>
+      <c r="AK20" s="7" t="inlineStr">
+        <is>
+          <t>-3.8503</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -3979,6 +4379,26 @@
           <t>-3.4361</t>
         </is>
       </c>
+      <c r="AH21" s="1" t="inlineStr">
+        <is>
+          <t>1.9161</t>
+        </is>
+      </c>
+      <c r="AI21" s="7" t="inlineStr">
+        <is>
+          <t>-1.7905</t>
+        </is>
+      </c>
+      <c r="AJ21" s="7" t="inlineStr">
+        <is>
+          <t>-4.0565</t>
+        </is>
+      </c>
+      <c r="AK21" s="4" t="inlineStr">
+        <is>
+          <t>-6.6508</t>
+        </is>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -4146,6 +4566,26 @@
           <t>-1.7413</t>
         </is>
       </c>
+      <c r="AH22" s="2" t="inlineStr">
+        <is>
+          <t>-0.7595</t>
+        </is>
+      </c>
+      <c r="AI22" s="8" t="inlineStr">
+        <is>
+          <t>0.2551</t>
+        </is>
+      </c>
+      <c r="AJ22" s="8" t="inlineStr">
+        <is>
+          <t>0.7634</t>
+        </is>
+      </c>
+      <c r="AK22" s="7" t="inlineStr">
+        <is>
+          <t>-2.0202</t>
+        </is>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -4313,6 +4753,26 @@
           <t>-4.7516</t>
         </is>
       </c>
+      <c r="AH23" s="1" t="inlineStr">
+        <is>
+          <t>3.7415</t>
+        </is>
+      </c>
+      <c r="AI23" s="7" t="inlineStr">
+        <is>
+          <t>-3.1694</t>
+        </is>
+      </c>
+      <c r="AJ23" s="8" t="inlineStr">
+        <is>
+          <t>1.2415</t>
+        </is>
+      </c>
+      <c r="AK23" s="7" t="inlineStr">
+        <is>
+          <t>-3.1215</t>
+        </is>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -4480,6 +4940,26 @@
           <t>-2.7158</t>
         </is>
       </c>
+      <c r="AH24" s="1" t="inlineStr">
+        <is>
+          <t>4.4865</t>
+        </is>
+      </c>
+      <c r="AI24" s="2" t="inlineStr">
+        <is>
+          <t>-1.145</t>
+        </is>
+      </c>
+      <c r="AJ24" s="7" t="inlineStr">
+        <is>
+          <t>-2.1236</t>
+        </is>
+      </c>
+      <c r="AK24" s="2" t="inlineStr">
+        <is>
+          <t>-1.2821</t>
+        </is>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -4647,6 +5127,26 @@
           <t>-7.2819</t>
         </is>
       </c>
+      <c r="AH25" s="5" t="inlineStr">
+        <is>
+          <t>5.2479</t>
+        </is>
+      </c>
+      <c r="AI25" s="7" t="inlineStr">
+        <is>
+          <t>-2.8198</t>
+        </is>
+      </c>
+      <c r="AJ25" s="3" t="inlineStr">
+        <is>
+          <t>10.0142</t>
+        </is>
+      </c>
+      <c r="AK25" s="3" t="inlineStr">
+        <is>
+          <t>10.0032</t>
+        </is>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -4814,6 +5314,26 @@
           <t>-1.8419</t>
         </is>
       </c>
+      <c r="AH26" s="1" t="inlineStr">
+        <is>
+          <t>2.6634</t>
+        </is>
+      </c>
+      <c r="AI26" s="2" t="inlineStr">
+        <is>
+          <t>-0.059</t>
+        </is>
+      </c>
+      <c r="AJ26" s="2" t="inlineStr">
+        <is>
+          <t>-0.354</t>
+        </is>
+      </c>
+      <c r="AK26" s="6" t="inlineStr">
+        <is>
+          <t>-9.4139</t>
+        </is>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -4981,6 +5501,26 @@
           <t>-1.6162</t>
         </is>
       </c>
+      <c r="AH27" s="7" t="inlineStr">
+        <is>
+          <t>-4.7228</t>
+        </is>
+      </c>
+      <c r="AI27" s="7" t="inlineStr">
+        <is>
+          <t>-4.3103</t>
+        </is>
+      </c>
+      <c r="AJ27" s="7" t="inlineStr">
+        <is>
+          <t>-3.6036</t>
+        </is>
+      </c>
+      <c r="AK27" s="7" t="inlineStr">
+        <is>
+          <t>-3.5047</t>
+        </is>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -5148,6 +5688,26 @@
           <t>-7.0492</t>
         </is>
       </c>
+      <c r="AH28" s="1" t="inlineStr">
+        <is>
+          <t>1.5873</t>
+        </is>
+      </c>
+      <c r="AI28" s="4" t="inlineStr">
+        <is>
+          <t>-5.0347</t>
+        </is>
+      </c>
+      <c r="AJ28" s="8" t="inlineStr">
+        <is>
+          <t>1.036</t>
+        </is>
+      </c>
+      <c r="AK28" s="7" t="inlineStr">
+        <is>
+          <t>-4.5235</t>
+        </is>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -5315,6 +5875,26 @@
           <t>0.9887</t>
         </is>
       </c>
+      <c r="AH29" s="2" t="inlineStr">
+        <is>
+          <t>-0.5594</t>
+        </is>
+      </c>
+      <c r="AI29" s="4" t="inlineStr">
+        <is>
+          <t>-6.1885</t>
+        </is>
+      </c>
+      <c r="AJ29" s="3" t="inlineStr">
+        <is>
+          <t>10.045</t>
+        </is>
+      </c>
+      <c r="AK29" s="3" t="inlineStr">
+        <is>
+          <t>9.9455</t>
+        </is>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -5482,6 +6062,26 @@
           <t>-4.4262</t>
         </is>
       </c>
+      <c r="AH30" s="7" t="inlineStr">
+        <is>
+          <t>-2.1441</t>
+        </is>
+      </c>
+      <c r="AI30" s="7" t="inlineStr">
+        <is>
+          <t>-2.7169</t>
+        </is>
+      </c>
+      <c r="AJ30" s="7" t="inlineStr">
+        <is>
+          <t>-3.0631</t>
+        </is>
+      </c>
+      <c r="AK30" s="4" t="inlineStr">
+        <is>
+          <t>-6.9703</t>
+        </is>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -5649,6 +6249,26 @@
           <t>10.0121</t>
         </is>
       </c>
+      <c r="AH31" s="5" t="inlineStr">
+        <is>
+          <t>5.1535</t>
+        </is>
+      </c>
+      <c r="AI31" s="4" t="inlineStr">
+        <is>
+          <t>-8.0292</t>
+        </is>
+      </c>
+      <c r="AJ31" s="1" t="inlineStr">
+        <is>
+          <t>3.288</t>
+        </is>
+      </c>
+      <c r="AK31" s="6" t="inlineStr">
+        <is>
+          <t>-9.989</t>
+        </is>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -5816,6 +6436,26 @@
           <t>-4.2614</t>
         </is>
       </c>
+      <c r="AH32" s="8" t="inlineStr">
+        <is>
+          <t>0.5935</t>
+        </is>
+      </c>
+      <c r="AI32" s="2" t="inlineStr">
+        <is>
+          <t>-1.1799</t>
+        </is>
+      </c>
+      <c r="AJ32" s="7" t="inlineStr">
+        <is>
+          <t>-3.2836</t>
+        </is>
+      </c>
+      <c r="AK32" s="7" t="inlineStr">
+        <is>
+          <t>-4.321</t>
+        </is>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -5983,6 +6623,26 @@
           <t>0.8039</t>
         </is>
       </c>
+      <c r="AH33" s="7" t="inlineStr">
+        <is>
+          <t>-2.2329</t>
+        </is>
+      </c>
+      <c r="AI33" s="8" t="inlineStr">
+        <is>
+          <t>0.5302</t>
+        </is>
+      </c>
+      <c r="AJ33" s="2" t="inlineStr">
+        <is>
+          <t>-0.6085</t>
+        </is>
+      </c>
+      <c r="AK33" s="8" t="inlineStr">
+        <is>
+          <t>0.898</t>
+        </is>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -6150,6 +6810,26 @@
           <t>-6.8396</t>
         </is>
       </c>
+      <c r="AH34" s="1" t="inlineStr">
+        <is>
+          <t>3.2278</t>
+        </is>
+      </c>
+      <c r="AI34" s="7" t="inlineStr">
+        <is>
+          <t>-2.0846</t>
+        </is>
+      </c>
+      <c r="AJ34" s="1" t="inlineStr">
+        <is>
+          <t>3.0056</t>
+        </is>
+      </c>
+      <c r="AK34" s="4" t="inlineStr">
+        <is>
+          <t>-6.079</t>
+        </is>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -6317,6 +6997,26 @@
           <t>-0.1161</t>
         </is>
       </c>
+      <c r="AH35" s="3" t="inlineStr">
+        <is>
+          <t>9.9942</t>
+        </is>
+      </c>
+      <c r="AI35" s="2" t="inlineStr">
+        <is>
+          <t>-0.2113</t>
+        </is>
+      </c>
+      <c r="AJ35" s="8" t="inlineStr">
+        <is>
+          <t>1.0588</t>
+        </is>
+      </c>
+      <c r="AK35" s="7" t="inlineStr">
+        <is>
+          <t>-2.4882</t>
+        </is>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -6484,6 +7184,26 @@
           <t>-9.5227</t>
         </is>
       </c>
+      <c r="AH36" s="3" t="inlineStr">
+        <is>
+          <t>10.0</t>
+        </is>
+      </c>
+      <c r="AI36" s="8" t="inlineStr">
+        <is>
+          <t>0.692</t>
+        </is>
+      </c>
+      <c r="AJ36" s="3" t="inlineStr">
+        <is>
+          <t>10.0</t>
+        </is>
+      </c>
+      <c r="AK36" s="3" t="inlineStr">
+        <is>
+          <t>9.0694</t>
+        </is>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -6651,6 +7371,26 @@
           <t>-1.9214</t>
         </is>
       </c>
+      <c r="AH37" s="8" t="inlineStr">
+        <is>
+          <t>1.2467</t>
+        </is>
+      </c>
+      <c r="AI37" s="4" t="inlineStr">
+        <is>
+          <t>-5.7168</t>
+        </is>
+      </c>
+      <c r="AJ37" s="1" t="inlineStr">
+        <is>
+          <t>3.1716</t>
+        </is>
+      </c>
+      <c r="AK37" s="6" t="inlineStr">
+        <is>
+          <t>-10.0362</t>
+        </is>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -6818,6 +7558,26 @@
           <t>-0.7813</t>
         </is>
       </c>
+      <c r="AH38" s="8" t="inlineStr">
+        <is>
+          <t>0.1575</t>
+        </is>
+      </c>
+      <c r="AI38" s="2" t="inlineStr">
+        <is>
+          <t>-0.1572</t>
+        </is>
+      </c>
+      <c r="AJ38" s="2" t="inlineStr">
+        <is>
+          <t>-1.1024</t>
+        </is>
+      </c>
+      <c r="AK38" s="4" t="inlineStr">
+        <is>
+          <t>-5.5732</t>
+        </is>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -6985,6 +7745,26 @@
           <t>13.6804</t>
         </is>
       </c>
+      <c r="AH39" s="2" t="inlineStr">
+        <is>
+          <t>-0.4422</t>
+        </is>
+      </c>
+      <c r="AI39" s="6" t="inlineStr">
+        <is>
+          <t>-10.0571</t>
+        </is>
+      </c>
+      <c r="AJ39" s="8" t="inlineStr">
+        <is>
+          <t>0.8818</t>
+        </is>
+      </c>
+      <c r="AK39" s="6" t="inlineStr">
+        <is>
+          <t>-9.1608</t>
+        </is>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -7152,6 +7932,26 @@
           <t>0.3111</t>
         </is>
       </c>
+      <c r="AH40" s="1" t="inlineStr">
+        <is>
+          <t>1.9851</t>
+        </is>
+      </c>
+      <c r="AI40" s="7" t="inlineStr">
+        <is>
+          <t>-1.5207</t>
+        </is>
+      </c>
+      <c r="AJ40" s="7" t="inlineStr">
+        <is>
+          <t>-3.6442</t>
+        </is>
+      </c>
+      <c r="AK40" s="7" t="inlineStr">
+        <is>
+          <t>-2.2436</t>
+        </is>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -7319,6 +8119,26 @@
           <t>-7.8431</t>
         </is>
       </c>
+      <c r="AH41" s="8" t="inlineStr">
+        <is>
+          <t>1.0638</t>
+        </is>
+      </c>
+      <c r="AI41" s="3" t="inlineStr">
+        <is>
+          <t>10.0</t>
+        </is>
+      </c>
+      <c r="AJ41" s="8" t="inlineStr">
+        <is>
+          <t>1.1164</t>
+        </is>
+      </c>
+      <c r="AK41" s="7" t="inlineStr">
+        <is>
+          <t>-3.1546</t>
+        </is>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -7486,6 +8306,26 @@
           <t>-7.5279</t>
         </is>
       </c>
+      <c r="AH42" s="1" t="inlineStr">
+        <is>
+          <t>3.2663</t>
+        </is>
+      </c>
+      <c r="AI42" s="7" t="inlineStr">
+        <is>
+          <t>-1.9465</t>
+        </is>
+      </c>
+      <c r="AJ42" s="1" t="inlineStr">
+        <is>
+          <t>4.0199</t>
+        </is>
+      </c>
+      <c r="AK42" s="4" t="inlineStr">
+        <is>
+          <t>-6.4885</t>
+        </is>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -7653,6 +8493,26 @@
           <t>-2.5969</t>
         </is>
       </c>
+      <c r="AH43" s="2" t="inlineStr">
+        <is>
+          <t>-0.7194</t>
+        </is>
+      </c>
+      <c r="AI43" s="7" t="inlineStr">
+        <is>
+          <t>-1.5345</t>
+        </is>
+      </c>
+      <c r="AJ43" s="8" t="inlineStr">
+        <is>
+          <t>0.0866</t>
+        </is>
+      </c>
+      <c r="AK43" s="7" t="inlineStr">
+        <is>
+          <t>-1.6869</t>
+        </is>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -7820,6 +8680,26 @@
           <t>-6.0987</t>
         </is>
       </c>
+      <c r="AH44" s="1" t="inlineStr">
+        <is>
+          <t>2.1649</t>
+        </is>
+      </c>
+      <c r="AI44" s="2" t="inlineStr">
+        <is>
+          <t>-0.5045</t>
+        </is>
+      </c>
+      <c r="AJ44" s="3" t="inlineStr">
+        <is>
+          <t>10.0406</t>
+        </is>
+      </c>
+      <c r="AK44" s="1" t="inlineStr">
+        <is>
+          <t>4.8848</t>
+        </is>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -7987,6 +8867,26 @@
           <t>-7.0682</t>
         </is>
       </c>
+      <c r="AH45" s="1" t="inlineStr">
+        <is>
+          <t>4.0344</t>
+        </is>
+      </c>
+      <c r="AI45" s="1" t="inlineStr">
+        <is>
+          <t>1.9708</t>
+        </is>
+      </c>
+      <c r="AJ45" s="1" t="inlineStr">
+        <is>
+          <t>3.803</t>
+        </is>
+      </c>
+      <c r="AK45" s="7" t="inlineStr">
+        <is>
+          <t>-4.5646</t>
+        </is>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -8154,6 +9054,26 @@
           <t>-3.7897</t>
         </is>
       </c>
+      <c r="AH46" s="1" t="inlineStr">
+        <is>
+          <t>1.6518</t>
+        </is>
+      </c>
+      <c r="AI46" s="1" t="inlineStr">
+        <is>
+          <t>3.875</t>
+        </is>
+      </c>
+      <c r="AJ46" s="3" t="inlineStr">
+        <is>
+          <t>9.988</t>
+        </is>
+      </c>
+      <c r="AK46" s="4" t="inlineStr">
+        <is>
+          <t>-5.9081</t>
+        </is>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -8321,6 +9241,26 @@
           <t>-4.2401</t>
         </is>
       </c>
+      <c r="AH47" s="5" t="inlineStr">
+        <is>
+          <t>6.4033</t>
+        </is>
+      </c>
+      <c r="AI47" s="8" t="inlineStr">
+        <is>
+          <t>1.2804</t>
+        </is>
+      </c>
+      <c r="AJ47" s="3" t="inlineStr">
+        <is>
+          <t>9.9874</t>
+        </is>
+      </c>
+      <c r="AK47" s="5" t="inlineStr">
+        <is>
+          <t>5.5747</t>
+        </is>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -8488,6 +9428,26 @@
           <t>-5.0233</t>
         </is>
       </c>
+      <c r="AH48" s="3" t="inlineStr">
+        <is>
+          <t>9.9902</t>
+        </is>
+      </c>
+      <c r="AI48" s="5" t="inlineStr">
+        <is>
+          <t>5.9662</t>
+        </is>
+      </c>
+      <c r="AJ48" s="3" t="inlineStr">
+        <is>
+          <t>10.0</t>
+        </is>
+      </c>
+      <c r="AK48" s="6" t="inlineStr">
+        <is>
+          <t>-9.7021</t>
+        </is>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -8655,6 +9615,26 @@
           <t>2.2059</t>
         </is>
       </c>
+      <c r="AH49" s="2" t="inlineStr">
+        <is>
+          <t>-1.199</t>
+        </is>
+      </c>
+      <c r="AI49" s="4" t="inlineStr">
+        <is>
+          <t>-5.3398</t>
+        </is>
+      </c>
+      <c r="AJ49" s="1" t="inlineStr">
+        <is>
+          <t>1.5385</t>
+        </is>
+      </c>
+      <c r="AK49" s="4" t="inlineStr">
+        <is>
+          <t>-7.5758</t>
+        </is>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -8822,6 +9802,26 @@
           <t>-3.6337</t>
         </is>
       </c>
+      <c r="AH50" s="1" t="inlineStr">
+        <is>
+          <t>2.5641</t>
+        </is>
+      </c>
+      <c r="AI50" s="8" t="inlineStr">
+        <is>
+          <t>0.2941</t>
+        </is>
+      </c>
+      <c r="AJ50" s="1" t="inlineStr">
+        <is>
+          <t>4.8387</t>
+        </is>
+      </c>
+      <c r="AK50" s="8" t="inlineStr">
+        <is>
+          <t>0.979</t>
+        </is>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -8989,6 +9989,26 @@
           <t>-5.132</t>
         </is>
       </c>
+      <c r="AH51" s="1" t="inlineStr">
+        <is>
+          <t>2.7821</t>
+        </is>
+      </c>
+      <c r="AI51" s="3" t="inlineStr">
+        <is>
+          <t>10.0752</t>
+        </is>
+      </c>
+      <c r="AJ51" s="5" t="inlineStr">
+        <is>
+          <t>6.9672</t>
+        </is>
+      </c>
+      <c r="AK51" s="7" t="inlineStr">
+        <is>
+          <t>-4.7254</t>
+        </is>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -9156,6 +10176,26 @@
           <t>-3.9773</t>
         </is>
       </c>
+      <c r="AH52" s="1" t="inlineStr">
+        <is>
+          <t>2.3077</t>
+        </is>
+      </c>
+      <c r="AI52" s="3" t="inlineStr">
+        <is>
+          <t>10.0058</t>
+        </is>
+      </c>
+      <c r="AJ52" s="8" t="inlineStr">
+        <is>
+          <t>0.1577</t>
+        </is>
+      </c>
+      <c r="AK52" s="7" t="inlineStr">
+        <is>
+          <t>-3.5696</t>
+        </is>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -9323,6 +10363,26 @@
           <t>-4.4199</t>
         </is>
       </c>
+      <c r="AH53" s="1" t="inlineStr">
+        <is>
+          <t>2.7168</t>
+        </is>
+      </c>
+      <c r="AI53" s="1" t="inlineStr">
+        <is>
+          <t>1.8571</t>
+        </is>
+      </c>
+      <c r="AJ53" s="7" t="inlineStr">
+        <is>
+          <t>-4.9171</t>
+        </is>
+      </c>
+      <c r="AK53" s="4" t="inlineStr">
+        <is>
+          <t>-6.1592</t>
+        </is>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -9490,6 +10550,26 @@
           <t>3.197</t>
         </is>
       </c>
+      <c r="AH54" s="7" t="inlineStr">
+        <is>
+          <t>-1.9134</t>
+        </is>
+      </c>
+      <c r="AI54" s="2" t="inlineStr">
+        <is>
+          <t>-1.2541</t>
+        </is>
+      </c>
+      <c r="AJ54" s="8" t="inlineStr">
+        <is>
+          <t>1.1289</t>
+        </is>
+      </c>
+      <c r="AK54" s="8" t="inlineStr">
+        <is>
+          <t>0.6977</t>
+        </is>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -9657,6 +10737,26 @@
           <t>-7.7114</t>
         </is>
       </c>
+      <c r="AH55" s="8" t="inlineStr">
+        <is>
+          <t>1.0782</t>
+        </is>
+      </c>
+      <c r="AI55" s="1" t="inlineStr">
+        <is>
+          <t>1.6</t>
+        </is>
+      </c>
+      <c r="AJ55" s="3" t="inlineStr">
+        <is>
+          <t>9.9738</t>
+        </is>
+      </c>
+      <c r="AK55" s="1" t="inlineStr">
+        <is>
+          <t>3.1026</t>
+        </is>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -9824,6 +10924,26 @@
           <t>2.5518</t>
         </is>
       </c>
+      <c r="AH56" s="7" t="inlineStr">
+        <is>
+          <t>-3.0986</t>
+        </is>
+      </c>
+      <c r="AI56" s="7" t="inlineStr">
+        <is>
+          <t>-4.8934</t>
+        </is>
+      </c>
+      <c r="AJ56" s="7" t="inlineStr">
+        <is>
+          <t>-2.9037</t>
+        </is>
+      </c>
+      <c r="AK56" s="7" t="inlineStr">
+        <is>
+          <t>-3.9349</t>
+        </is>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -9991,6 +11111,26 @@
           <t>-4.104</t>
         </is>
       </c>
+      <c r="AH57" s="8" t="inlineStr">
+        <is>
+          <t>0.8559</t>
+        </is>
+      </c>
+      <c r="AI57" s="7" t="inlineStr">
+        <is>
+          <t>-2.6874</t>
+        </is>
+      </c>
+      <c r="AJ57" s="3" t="inlineStr">
+        <is>
+          <t>10.0291</t>
+        </is>
+      </c>
+      <c r="AK57" s="1" t="inlineStr">
+        <is>
+          <t>2.3778</t>
+        </is>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -10158,6 +11298,26 @@
           <t>1.227</t>
         </is>
       </c>
+      <c r="AH58" s="8" t="inlineStr">
+        <is>
+          <t>0.6061</t>
+        </is>
+      </c>
+      <c r="AI58" s="7" t="inlineStr">
+        <is>
+          <t>-2.7108</t>
+        </is>
+      </c>
+      <c r="AJ58" s="8" t="inlineStr">
+        <is>
+          <t>0.9288</t>
+        </is>
+      </c>
+      <c r="AK58" s="7" t="inlineStr">
+        <is>
+          <t>-2.7607</t>
+        </is>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -10325,6 +11485,26 @@
           <t>0.2667</t>
         </is>
       </c>
+      <c r="AH59" s="1" t="inlineStr">
+        <is>
+          <t>2.7261</t>
+        </is>
+      </c>
+      <c r="AI59" s="1" t="inlineStr">
+        <is>
+          <t>3.8835</t>
+        </is>
+      </c>
+      <c r="AJ59" s="8" t="inlineStr">
+        <is>
+          <t>1.1215</t>
+        </is>
+      </c>
+      <c r="AK59" s="4" t="inlineStr">
+        <is>
+          <t>-6.7468</t>
+        </is>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -10492,6 +11672,26 @@
           <t>-0.7277</t>
         </is>
       </c>
+      <c r="AH60" s="8" t="inlineStr">
+        <is>
+          <t>0.6283</t>
+        </is>
+      </c>
+      <c r="AI60" s="8" t="inlineStr">
+        <is>
+          <t>0.8325</t>
+        </is>
+      </c>
+      <c r="AJ60" s="1" t="inlineStr">
+        <is>
+          <t>2.6832</t>
+        </is>
+      </c>
+      <c r="AK60" s="2" t="inlineStr">
+        <is>
+          <t>-1.3065</t>
+        </is>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -10659,6 +11859,26 @@
           <t>-4.7138</t>
         </is>
       </c>
+      <c r="AH61" s="8" t="inlineStr">
+        <is>
+          <t>0.3534</t>
+        </is>
+      </c>
+      <c r="AI61" s="8" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="AJ61" s="1" t="inlineStr">
+        <is>
+          <t>3.169</t>
+        </is>
+      </c>
+      <c r="AK61" s="7" t="inlineStr">
+        <is>
+          <t>-2.0478</t>
+        </is>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -10826,6 +12046,26 @@
           <t>0.0</t>
         </is>
       </c>
+      <c r="AH62" s="1" t="inlineStr">
+        <is>
+          <t>3.7523</t>
+        </is>
+      </c>
+      <c r="AI62" s="2" t="inlineStr">
+        <is>
+          <t>-1.085</t>
+        </is>
+      </c>
+      <c r="AJ62" s="2" t="inlineStr">
+        <is>
+          <t>-0.5484</t>
+        </is>
+      </c>
+      <c r="AK62" s="2" t="inlineStr">
+        <is>
+          <t>-0.9191</t>
+        </is>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -10993,6 +12233,26 @@
           <t>-5.3872</t>
         </is>
       </c>
+      <c r="AH63" s="1" t="inlineStr">
+        <is>
+          <t>1.7794</t>
+        </is>
+      </c>
+      <c r="AI63" s="8" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="AJ63" s="1" t="inlineStr">
+        <is>
+          <t>2.0979</t>
+        </is>
+      </c>
+      <c r="AK63" s="7" t="inlineStr">
+        <is>
+          <t>-2.7397</t>
+        </is>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -11160,6 +12420,26 @@
           <t>-4.7819</t>
         </is>
       </c>
+      <c r="AH64" s="5" t="inlineStr">
+        <is>
+          <t>5.7269</t>
+        </is>
+      </c>
+      <c r="AI64" s="7" t="inlineStr">
+        <is>
+          <t>-3.7222</t>
+        </is>
+      </c>
+      <c r="AJ64" s="8" t="inlineStr">
+        <is>
+          <t>0.8367</t>
+        </is>
+      </c>
+      <c r="AK64" s="6" t="inlineStr">
+        <is>
+          <t>-10.0</t>
+        </is>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -11327,6 +12607,26 @@
           <t>-3.4063</t>
         </is>
       </c>
+      <c r="AH65" s="1" t="inlineStr">
+        <is>
+          <t>1.7632</t>
+        </is>
+      </c>
+      <c r="AI65" s="8" t="inlineStr">
+        <is>
+          <t>0.9901</t>
+        </is>
+      </c>
+      <c r="AJ65" s="7" t="inlineStr">
+        <is>
+          <t>-2.5735</t>
+        </is>
+      </c>
+      <c r="AK65" s="7" t="inlineStr">
+        <is>
+          <t>-4.1509</t>
+        </is>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -11494,6 +12794,26 @@
           <t>1.2693</t>
         </is>
       </c>
+      <c r="AH66" s="1" t="inlineStr">
+        <is>
+          <t>3.4877</t>
+        </is>
+      </c>
+      <c r="AI66" s="7" t="inlineStr">
+        <is>
+          <t>-2.7909</t>
+        </is>
+      </c>
+      <c r="AJ66" s="5" t="inlineStr">
+        <is>
+          <t>5.1463</t>
+        </is>
+      </c>
+      <c r="AK66" s="4" t="inlineStr">
+        <is>
+          <t>-7.2643</t>
+        </is>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -11661,6 +12981,26 @@
           <t>-2.8571</t>
         </is>
       </c>
+      <c r="AH67" s="1" t="inlineStr">
+        <is>
+          <t>4.0248</t>
+        </is>
+      </c>
+      <c r="AI67" s="7" t="inlineStr">
+        <is>
+          <t>-1.6369</t>
+        </is>
+      </c>
+      <c r="AJ67" s="7" t="inlineStr">
+        <is>
+          <t>-2.118</t>
+        </is>
+      </c>
+      <c r="AK67" s="4" t="inlineStr">
+        <is>
+          <t>-5.1005</t>
+        </is>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -11828,6 +13168,26 @@
           <t>9.9817</t>
         </is>
       </c>
+      <c r="AH68" s="5" t="inlineStr">
+        <is>
+          <t>5.7001</t>
+        </is>
+      </c>
+      <c r="AI68" s="4" t="inlineStr">
+        <is>
+          <t>-8.3246</t>
+        </is>
+      </c>
+      <c r="AJ68" s="7" t="inlineStr">
+        <is>
+          <t>-4.5117</t>
+        </is>
+      </c>
+      <c r="AK68" s="5" t="inlineStr">
+        <is>
+          <t>6.1603</t>
+        </is>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -11995,6 +13355,26 @@
           <t>-3.3816</t>
         </is>
       </c>
+      <c r="AH69" s="1" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="AI69" s="8" t="inlineStr">
+        <is>
+          <t>0.9709</t>
+        </is>
+      </c>
+      <c r="AJ69" s="7" t="inlineStr">
+        <is>
+          <t>-2.6442</t>
+        </is>
+      </c>
+      <c r="AK69" s="4" t="inlineStr">
+        <is>
+          <t>-5.9259</t>
+        </is>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -12162,6 +13542,26 @@
           <t>10.004</t>
         </is>
       </c>
+      <c r="AH70" s="3" t="inlineStr">
+        <is>
+          <t>10.0</t>
+        </is>
+      </c>
+      <c r="AI70" s="3" t="inlineStr">
+        <is>
+          <t>10.0132</t>
+        </is>
+      </c>
+      <c r="AJ70" s="3" t="inlineStr">
+        <is>
+          <t>10.0</t>
+        </is>
+      </c>
+      <c r="AK70" s="6" t="inlineStr">
+        <is>
+          <t>-9.9891</t>
+        </is>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -12329,6 +13729,26 @@
           <t>-3.9773</t>
         </is>
       </c>
+      <c r="AH71" s="1" t="inlineStr">
+        <is>
+          <t>2.3077</t>
+        </is>
+      </c>
+      <c r="AI71" s="3" t="inlineStr">
+        <is>
+          <t>10.0058</t>
+        </is>
+      </c>
+      <c r="AJ71" s="8" t="inlineStr">
+        <is>
+          <t>0.1577</t>
+        </is>
+      </c>
+      <c r="AK71" s="7" t="inlineStr">
+        <is>
+          <t>-3.5696</t>
+        </is>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -12496,6 +13916,26 @@
           <t>-4.8988</t>
         </is>
       </c>
+      <c r="AH72" s="5" t="inlineStr">
+        <is>
+          <t>6.383</t>
+        </is>
+      </c>
+      <c r="AI72" s="2" t="inlineStr">
+        <is>
+          <t>-1.3684</t>
+        </is>
+      </c>
+      <c r="AJ72" s="2" t="inlineStr">
+        <is>
+          <t>-1.0672</t>
+        </is>
+      </c>
+      <c r="AK72" s="3" t="inlineStr">
+        <is>
+          <t>10.0324</t>
+        </is>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -12663,6 +14103,26 @@
           <t>-1.9135</t>
         </is>
       </c>
+      <c r="AH73" s="7" t="inlineStr">
+        <is>
+          <t>-2.4597</t>
+        </is>
+      </c>
+      <c r="AI73" s="7" t="inlineStr">
+        <is>
+          <t>-1.7391</t>
+        </is>
+      </c>
+      <c r="AJ73" s="8" t="inlineStr">
+        <is>
+          <t>0.6195</t>
+        </is>
+      </c>
+      <c r="AK73" s="3" t="inlineStr">
+        <is>
+          <t>10.0264</t>
+        </is>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -12830,6 +14290,26 @@
           <t>-2.8005</t>
         </is>
       </c>
+      <c r="AH74" s="1" t="inlineStr">
+        <is>
+          <t>2.3425</t>
+        </is>
+      </c>
+      <c r="AI74" s="1" t="inlineStr">
+        <is>
+          <t>2.5635</t>
+        </is>
+      </c>
+      <c r="AJ74" s="4" t="inlineStr">
+        <is>
+          <t>-5.3336</t>
+        </is>
+      </c>
+      <c r="AK74" s="7" t="inlineStr">
+        <is>
+          <t>-3.041</t>
+        </is>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -12997,6 +14477,26 @@
           <t>0.2469</t>
         </is>
       </c>
+      <c r="AH75" s="8" t="inlineStr">
+        <is>
+          <t>0.9852</t>
+        </is>
+      </c>
+      <c r="AI75" s="8" t="inlineStr">
+        <is>
+          <t>0.2439</t>
+        </is>
+      </c>
+      <c r="AJ75" s="1" t="inlineStr">
+        <is>
+          <t>2.9197</t>
+        </is>
+      </c>
+      <c r="AK75" s="7" t="inlineStr">
+        <is>
+          <t>-2.8369</t>
+        </is>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -13164,6 +14664,26 @@
           <t>-7.1332</t>
         </is>
       </c>
+      <c r="AH76" s="1" t="inlineStr">
+        <is>
+          <t>4.3478</t>
+        </is>
+      </c>
+      <c r="AI76" s="8" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="AJ76" s="7" t="inlineStr">
+        <is>
+          <t>-1.6625</t>
+        </is>
+      </c>
+      <c r="AK76" s="4" t="inlineStr">
+        <is>
+          <t>-6.4525</t>
+        </is>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -13331,6 +14851,26 @@
           <t>-3.8596</t>
         </is>
       </c>
+      <c r="AH77" s="1" t="inlineStr">
+        <is>
+          <t>2.4818</t>
+        </is>
+      </c>
+      <c r="AI77" s="7" t="inlineStr">
+        <is>
+          <t>-3.7037</t>
+        </is>
+      </c>
+      <c r="AJ77" s="8" t="inlineStr">
+        <is>
+          <t>0.5178</t>
+        </is>
+      </c>
+      <c r="AK77" s="4" t="inlineStr">
+        <is>
+          <t>-6.5489</t>
+        </is>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -13498,6 +15038,26 @@
           <t>-2.766</t>
         </is>
       </c>
+      <c r="AH78" s="8" t="inlineStr">
+        <is>
+          <t>1.3129</t>
+        </is>
+      </c>
+      <c r="AI78" s="8" t="inlineStr">
+        <is>
+          <t>0.9719</t>
+        </is>
+      </c>
+      <c r="AJ78" s="2" t="inlineStr">
+        <is>
+          <t>-0.8556</t>
+        </is>
+      </c>
+      <c r="AK78" s="7" t="inlineStr">
+        <is>
+          <t>-3.452</t>
+        </is>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -13665,6 +15225,26 @@
           <t>0.3823</t>
         </is>
       </c>
+      <c r="AH79" s="2" t="inlineStr">
+        <is>
+          <t>-0.7964</t>
+        </is>
+      </c>
+      <c r="AI79" s="2" t="inlineStr">
+        <is>
+          <t>-0.6981</t>
+        </is>
+      </c>
+      <c r="AJ79" s="7" t="inlineStr">
+        <is>
+          <t>-2.3199</t>
+        </is>
+      </c>
+      <c r="AK79" s="7" t="inlineStr">
+        <is>
+          <t>-2.5909</t>
+        </is>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -13832,6 +15412,26 @@
           <t>-0.3058</t>
         </is>
       </c>
+      <c r="AH80" s="1" t="inlineStr">
+        <is>
+          <t>2.1472</t>
+        </is>
+      </c>
+      <c r="AI80" s="5" t="inlineStr">
+        <is>
+          <t>6.3063</t>
+        </is>
+      </c>
+      <c r="AJ80" s="8" t="inlineStr">
+        <is>
+          <t>0.565</t>
+        </is>
+      </c>
+      <c r="AK80" s="2" t="inlineStr">
+        <is>
+          <t>-0.2809</t>
+        </is>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -13999,6 +15599,26 @@
           <t>-6.4491</t>
         </is>
       </c>
+      <c r="AH81" s="1" t="inlineStr">
+        <is>
+          <t>1.6894</t>
+        </is>
+      </c>
+      <c r="AI81" s="7" t="inlineStr">
+        <is>
+          <t>-2.5991</t>
+        </is>
+      </c>
+      <c r="AJ81" s="7" t="inlineStr">
+        <is>
+          <t>-2.8061</t>
+        </is>
+      </c>
+      <c r="AK81" s="1" t="inlineStr">
+        <is>
+          <t>1.7549</t>
+        </is>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -14166,6 +15786,26 @@
           <t>-2.9834</t>
         </is>
       </c>
+      <c r="AH82" s="7" t="inlineStr">
+        <is>
+          <t>-2.3918</t>
+        </is>
+      </c>
+      <c r="AI82" s="4" t="inlineStr">
+        <is>
+          <t>-7.9347</t>
+        </is>
+      </c>
+      <c r="AJ82" s="8" t="inlineStr">
+        <is>
+          <t>0.2535</t>
+        </is>
+      </c>
+      <c r="AK82" s="7" t="inlineStr">
+        <is>
+          <t>-4.5512</t>
+        </is>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -14333,6 +15973,26 @@
           <t>-6.9467</t>
         </is>
       </c>
+      <c r="AH83" s="1" t="inlineStr">
+        <is>
+          <t>3.125</t>
+        </is>
+      </c>
+      <c r="AI83" s="7" t="inlineStr">
+        <is>
+          <t>-2.5253</t>
+        </is>
+      </c>
+      <c r="AJ83" s="7" t="inlineStr">
+        <is>
+          <t>-1.7271</t>
+        </is>
+      </c>
+      <c r="AK83" s="7" t="inlineStr">
+        <is>
+          <t>-2.812</t>
+        </is>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -14500,6 +16160,26 @@
           <t>-5.3656</t>
         </is>
       </c>
+      <c r="AH84" s="1" t="inlineStr">
+        <is>
+          <t>3.3022</t>
+        </is>
+      </c>
+      <c r="AI84" s="7" t="inlineStr">
+        <is>
+          <t>-2.8951</t>
+        </is>
+      </c>
+      <c r="AJ84" s="2" t="inlineStr">
+        <is>
+          <t>-1.2422</t>
+        </is>
+      </c>
+      <c r="AK84" s="6" t="inlineStr">
+        <is>
+          <t>-10.0</t>
+        </is>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -14667,6 +16347,26 @@
           <t>10.004</t>
         </is>
       </c>
+      <c r="AH85" s="3" t="inlineStr">
+        <is>
+          <t>10.0</t>
+        </is>
+      </c>
+      <c r="AI85" s="3" t="inlineStr">
+        <is>
+          <t>10.0132</t>
+        </is>
+      </c>
+      <c r="AJ85" s="3" t="inlineStr">
+        <is>
+          <t>10.0</t>
+        </is>
+      </c>
+      <c r="AK85" s="6" t="inlineStr">
+        <is>
+          <t>-9.9891</t>
+        </is>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -14834,6 +16534,26 @@
           <t>-2.0872</t>
         </is>
       </c>
+      <c r="AH86" s="2" t="inlineStr">
+        <is>
+          <t>-1.3681</t>
+        </is>
+      </c>
+      <c r="AI86" s="2" t="inlineStr">
+        <is>
+          <t>-0.3548</t>
+        </is>
+      </c>
+      <c r="AJ86" s="2" t="inlineStr">
+        <is>
+          <t>-0.5503</t>
+        </is>
+      </c>
+      <c r="AK86" s="3" t="inlineStr">
+        <is>
+          <t>9.9935</t>
+        </is>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
@@ -15001,6 +16721,26 @@
           <t>2.9667</t>
         </is>
       </c>
+      <c r="AH87" s="7" t="inlineStr">
+        <is>
+          <t>-3.2326</t>
+        </is>
+      </c>
+      <c r="AI87" s="7" t="inlineStr">
+        <is>
+          <t>-4.7204</t>
+        </is>
+      </c>
+      <c r="AJ87" s="2" t="inlineStr">
+        <is>
+          <t>-0.9146</t>
+        </is>
+      </c>
+      <c r="AK87" s="3" t="inlineStr">
+        <is>
+          <t>10.0</t>
+        </is>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -15168,6 +16908,26 @@
           <t>-6.9556</t>
         </is>
       </c>
+      <c r="AH88" s="1" t="inlineStr">
+        <is>
+          <t>4.2825</t>
+        </is>
+      </c>
+      <c r="AI88" s="7" t="inlineStr">
+        <is>
+          <t>-1.6931</t>
+        </is>
+      </c>
+      <c r="AJ88" s="1" t="inlineStr">
+        <is>
+          <t>3.701</t>
+        </is>
+      </c>
+      <c r="AK88" s="8" t="inlineStr">
+        <is>
+          <t>0.106</t>
+        </is>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
@@ -15335,6 +17095,26 @@
           <t>10.0096</t>
         </is>
       </c>
+      <c r="AH89" s="7" t="inlineStr">
+        <is>
+          <t>-3.7005</t>
+        </is>
+      </c>
+      <c r="AI89" s="7" t="inlineStr">
+        <is>
+          <t>-4.8373</t>
+        </is>
+      </c>
+      <c r="AJ89" s="6" t="inlineStr">
+        <is>
+          <t>-9.6912</t>
+        </is>
+      </c>
+      <c r="AK89" s="7" t="inlineStr">
+        <is>
+          <t>-3.4719</t>
+        </is>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
@@ -15502,6 +17282,26 @@
           <t>-4.6546</t>
         </is>
       </c>
+      <c r="AH90" s="3" t="inlineStr">
+        <is>
+          <t>9.9961</t>
+        </is>
+      </c>
+      <c r="AI90" s="7" t="inlineStr">
+        <is>
+          <t>-3.8394</t>
+        </is>
+      </c>
+      <c r="AJ90" s="1" t="inlineStr">
+        <is>
+          <t>3.2967</t>
+        </is>
+      </c>
+      <c r="AK90" s="4" t="inlineStr">
+        <is>
+          <t>-7.4823</t>
+        </is>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
@@ -15669,6 +17469,26 @@
           <t>2.1661</t>
         </is>
       </c>
+      <c r="AH91" s="7" t="inlineStr">
+        <is>
+          <t>-2.1201</t>
+        </is>
+      </c>
+      <c r="AI91" s="2" t="inlineStr">
+        <is>
+          <t>-1.1733</t>
+        </is>
+      </c>
+      <c r="AJ91" s="7" t="inlineStr">
+        <is>
+          <t>-4.9315</t>
+        </is>
+      </c>
+      <c r="AK91" s="8" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
@@ -15836,6 +17656,26 @@
           <t>-2.8157</t>
         </is>
       </c>
+      <c r="AH92" s="8" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="AI92" s="7" t="inlineStr">
+        <is>
+          <t>-1.8437</t>
+        </is>
+      </c>
+      <c r="AJ92" s="7" t="inlineStr">
+        <is>
+          <t>-3.4436</t>
+        </is>
+      </c>
+      <c r="AK92" s="8" t="inlineStr">
+        <is>
+          <t>0.0463</t>
+        </is>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
@@ -16003,6 +17843,26 @@
           <t>-5.0459</t>
         </is>
       </c>
+      <c r="AH93" s="5" t="inlineStr">
+        <is>
+          <t>5.6763</t>
+        </is>
+      </c>
+      <c r="AI93" s="8" t="inlineStr">
+        <is>
+          <t>0.5714</t>
+        </is>
+      </c>
+      <c r="AJ93" s="8" t="inlineStr">
+        <is>
+          <t>0.1326</t>
+        </is>
+      </c>
+      <c r="AK93" s="2" t="inlineStr">
+        <is>
+          <t>-0.8511</t>
+        </is>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
@@ -16170,6 +18030,26 @@
           <t>-6.3609</t>
         </is>
       </c>
+      <c r="AH94" s="7" t="inlineStr">
+        <is>
+          <t>-2.3697</t>
+        </is>
+      </c>
+      <c r="AI94" s="4" t="inlineStr">
+        <is>
+          <t>-5.9871</t>
+        </is>
+      </c>
+      <c r="AJ94" s="4" t="inlineStr">
+        <is>
+          <t>-6.3683</t>
+        </is>
+      </c>
+      <c r="AK94" s="8" t="inlineStr">
+        <is>
+          <t>0.7353</t>
+        </is>
+      </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
@@ -16337,6 +18217,26 @@
           <t>-1.2265</t>
         </is>
       </c>
+      <c r="AH95" s="2" t="inlineStr">
+        <is>
+          <t>-0.3311</t>
+        </is>
+      </c>
+      <c r="AI95" s="2" t="inlineStr">
+        <is>
+          <t>-1.2458</t>
+        </is>
+      </c>
+      <c r="AJ95" s="4" t="inlineStr">
+        <is>
+          <t>-5.8032</t>
+        </is>
+      </c>
+      <c r="AK95" s="8" t="inlineStr">
+        <is>
+          <t>1.0714</t>
+        </is>
+      </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
@@ -16504,6 +18404,26 @@
           <t>-0.3874</t>
         </is>
       </c>
+      <c r="AH96" s="8" t="inlineStr">
+        <is>
+          <t>1.1244</t>
+        </is>
+      </c>
+      <c r="AI96" s="2" t="inlineStr">
+        <is>
+          <t>-1.049</t>
+        </is>
+      </c>
+      <c r="AJ96" s="7" t="inlineStr">
+        <is>
+          <t>-2.8057</t>
+        </is>
+      </c>
+      <c r="AK96" s="4" t="inlineStr">
+        <is>
+          <t>-6.2023</t>
+        </is>
+      </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
@@ -16671,6 +18591,26 @@
           <t>-4.2636</t>
         </is>
       </c>
+      <c r="AH97" s="8" t="inlineStr">
+        <is>
+          <t>0.081</t>
+        </is>
+      </c>
+      <c r="AI97" s="7" t="inlineStr">
+        <is>
+          <t>-1.7799</t>
+        </is>
+      </c>
+      <c r="AJ97" s="7" t="inlineStr">
+        <is>
+          <t>-1.8946</t>
+        </is>
+      </c>
+      <c r="AK97" s="1" t="inlineStr">
+        <is>
+          <t>3.3585</t>
+        </is>
+      </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
@@ -16838,6 +18778,26 @@
           <t>-4.5683</t>
         </is>
       </c>
+      <c r="AH98" s="7" t="inlineStr">
+        <is>
+          <t>-2.6762</t>
+        </is>
+      </c>
+      <c r="AI98" s="1" t="inlineStr">
+        <is>
+          <t>3.4857</t>
+        </is>
+      </c>
+      <c r="AJ98" s="7" t="inlineStr">
+        <is>
+          <t>-3.8548</t>
+        </is>
+      </c>
+      <c r="AK98" s="7" t="inlineStr">
+        <is>
+          <t>-2.0241</t>
+        </is>
+      </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
@@ -17005,6 +18965,26 @@
           <t>-5.9223</t>
         </is>
       </c>
+      <c r="AH99" s="8" t="inlineStr">
+        <is>
+          <t>0.4128</t>
+        </is>
+      </c>
+      <c r="AI99" s="7" t="inlineStr">
+        <is>
+          <t>-2.261</t>
+        </is>
+      </c>
+      <c r="AJ99" s="7" t="inlineStr">
+        <is>
+          <t>-2.5237</t>
+        </is>
+      </c>
+      <c r="AK99" s="3" t="inlineStr">
+        <is>
+          <t>10.0324</t>
+        </is>
+      </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
@@ -17172,6 +19152,26 @@
           <t>-7.4689</t>
         </is>
       </c>
+      <c r="AH100" s="1" t="inlineStr">
+        <is>
+          <t>2.1525</t>
+        </is>
+      </c>
+      <c r="AI100" s="7" t="inlineStr">
+        <is>
+          <t>-2.6339</t>
+        </is>
+      </c>
+      <c r="AJ100" s="4" t="inlineStr">
+        <is>
+          <t>-5.5906</t>
+        </is>
+      </c>
+      <c r="AK100" s="4" t="inlineStr">
+        <is>
+          <t>-7.6409</t>
+        </is>
+      </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
@@ -17339,6 +19339,26 @@
           <t>-3.6137</t>
         </is>
       </c>
+      <c r="AH101" s="5" t="inlineStr">
+        <is>
+          <t>5.04</t>
+        </is>
+      </c>
+      <c r="AI101" s="7" t="inlineStr">
+        <is>
+          <t>-2.6916</t>
+        </is>
+      </c>
+      <c r="AJ101" s="5" t="inlineStr">
+        <is>
+          <t>8.0577</t>
+        </is>
+      </c>
+      <c r="AK101" s="8" t="inlineStr">
+        <is>
+          <t>0.7234</t>
+        </is>
+      </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
@@ -17506,6 +19526,26 @@
           <t>-7.2819</t>
         </is>
       </c>
+      <c r="AH102" s="5" t="inlineStr">
+        <is>
+          <t>5.2479</t>
+        </is>
+      </c>
+      <c r="AI102" s="7" t="inlineStr">
+        <is>
+          <t>-2.8198</t>
+        </is>
+      </c>
+      <c r="AJ102" s="3" t="inlineStr">
+        <is>
+          <t>10.0142</t>
+        </is>
+      </c>
+      <c r="AK102" s="3" t="inlineStr">
+        <is>
+          <t>10.0032</t>
+        </is>
+      </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
@@ -17673,6 +19713,26 @@
           <t>-9.9291</t>
         </is>
       </c>
+      <c r="AH103" s="8" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="AI103" s="7" t="inlineStr">
+        <is>
+          <t>-1.5748</t>
+        </is>
+      </c>
+      <c r="AJ103" s="1" t="inlineStr">
+        <is>
+          <t>2.4</t>
+        </is>
+      </c>
+      <c r="AK103" s="7" t="inlineStr">
+        <is>
+          <t>-4.1016</t>
+        </is>
+      </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
@@ -17840,6 +19900,26 @@
           <t>-4.031</t>
         </is>
       </c>
+      <c r="AH104" s="5" t="inlineStr">
+        <is>
+          <t>6.6236</t>
+        </is>
+      </c>
+      <c r="AI104" s="2" t="inlineStr">
+        <is>
+          <t>-0.0758</t>
+        </is>
+      </c>
+      <c r="AJ104" s="1" t="inlineStr">
+        <is>
+          <t>1.8196</t>
+        </is>
+      </c>
+      <c r="AK104" s="1" t="inlineStr">
+        <is>
+          <t>4.0208</t>
+        </is>
+      </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
@@ -18007,6 +20087,26 @@
           <t>-2.1463</t>
         </is>
       </c>
+      <c r="AH105" s="3" t="inlineStr">
+        <is>
+          <t>9.9919</t>
+        </is>
+      </c>
+      <c r="AI105" s="4" t="inlineStr">
+        <is>
+          <t>-8.3456</t>
+        </is>
+      </c>
+      <c r="AJ105" s="3" t="inlineStr">
+        <is>
+          <t>9.9919</t>
+        </is>
+      </c>
+      <c r="AK105" s="5" t="inlineStr">
+        <is>
+          <t>6.9231</t>
+        </is>
+      </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
@@ -18174,6 +20274,26 @@
           <t>-3.2854</t>
         </is>
       </c>
+      <c r="AH106" s="3" t="inlineStr">
+        <is>
+          <t>9.9788</t>
+        </is>
+      </c>
+      <c r="AI106" s="4" t="inlineStr">
+        <is>
+          <t>-8.4942</t>
+        </is>
+      </c>
+      <c r="AJ106" s="2" t="inlineStr">
+        <is>
+          <t>-0.211</t>
+        </is>
+      </c>
+      <c r="AK106" s="7" t="inlineStr">
+        <is>
+          <t>-4.8626</t>
+        </is>
+      </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
@@ -18341,6 +20461,26 @@
           <t>10.0343</t>
         </is>
       </c>
+      <c r="AH107" s="3" t="inlineStr">
+        <is>
+          <t>9.9766</t>
+        </is>
+      </c>
+      <c r="AI107" s="3" t="inlineStr">
+        <is>
+          <t>9.9929</t>
+        </is>
+      </c>
+      <c r="AJ107" s="3" t="inlineStr">
+        <is>
+          <t>9.9871</t>
+        </is>
+      </c>
+      <c r="AK107" s="3" t="inlineStr">
+        <is>
+          <t>10.0176</t>
+        </is>
+      </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
@@ -18508,6 +20648,26 @@
           <t>10.0244</t>
         </is>
       </c>
+      <c r="AH108" s="7" t="inlineStr">
+        <is>
+          <t>-2.2222</t>
+        </is>
+      </c>
+      <c r="AI108" s="6" t="inlineStr">
+        <is>
+          <t>-10.0</t>
+        </is>
+      </c>
+      <c r="AJ108" s="4" t="inlineStr">
+        <is>
+          <t>-7.7778</t>
+        </is>
+      </c>
+      <c r="AK108" s="8" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
@@ -18675,6 +20835,26 @@
           <t>-3.361</t>
         </is>
       </c>
+      <c r="AH109" s="8" t="inlineStr">
+        <is>
+          <t>0.3478</t>
+        </is>
+      </c>
+      <c r="AI109" s="5" t="inlineStr">
+        <is>
+          <t>7.6453</t>
+        </is>
+      </c>
+      <c r="AJ109" s="2" t="inlineStr">
+        <is>
+          <t>-0.2462</t>
+        </is>
+      </c>
+      <c r="AK109" s="7" t="inlineStr">
+        <is>
+          <t>-2.2214</t>
+        </is>
+      </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
@@ -18842,6 +21022,26 @@
           <t>-0.6075</t>
         </is>
       </c>
+      <c r="AH110" s="1" t="inlineStr">
+        <is>
+          <t>3.912</t>
+        </is>
+      </c>
+      <c r="AI110" s="2" t="inlineStr">
+        <is>
+          <t>-1.2941</t>
+        </is>
+      </c>
+      <c r="AJ110" s="2" t="inlineStr">
+        <is>
+          <t>-0.8343</t>
+        </is>
+      </c>
+      <c r="AK110" s="4" t="inlineStr">
+        <is>
+          <t>-6.3702</t>
+        </is>
+      </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
@@ -19009,6 +21209,26 @@
           <t>1.7918</t>
         </is>
       </c>
+      <c r="AH111" s="5" t="inlineStr">
+        <is>
+          <t>5.2808</t>
+        </is>
+      </c>
+      <c r="AI111" s="4" t="inlineStr">
+        <is>
+          <t>-5.3344</t>
+        </is>
+      </c>
+      <c r="AJ111" s="8" t="inlineStr">
+        <is>
+          <t>0.9251</t>
+        </is>
+      </c>
+      <c r="AK111" s="1" t="inlineStr">
+        <is>
+          <t>4.5</t>
+        </is>
+      </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
@@ -19176,6 +21396,26 @@
           <t>10.2913</t>
         </is>
       </c>
+      <c r="AH112" s="3" t="inlineStr">
+        <is>
+          <t>20.0</t>
+        </is>
+      </c>
+      <c r="AI112" s="7" t="inlineStr">
+        <is>
+          <t>-2.0246</t>
+        </is>
+      </c>
+      <c r="AJ112" s="1" t="inlineStr">
+        <is>
+          <t>2.6655</t>
+        </is>
+      </c>
+      <c r="AK112" s="4" t="inlineStr">
+        <is>
+          <t>-7.0887</t>
+        </is>
+      </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
@@ -19343,6 +21583,26 @@
           <t>-7.5202</t>
         </is>
       </c>
+      <c r="AH113" s="1" t="inlineStr">
+        <is>
+          <t>1.8247</t>
+        </is>
+      </c>
+      <c r="AI113" s="7" t="inlineStr">
+        <is>
+          <t>-3.3113</t>
+        </is>
+      </c>
+      <c r="AJ113" s="6" t="inlineStr">
+        <is>
+          <t>-9.4279</t>
+        </is>
+      </c>
+      <c r="AK113" s="2" t="inlineStr">
+        <is>
+          <t>-0.7562</t>
+        </is>
+      </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
@@ -19510,6 +21770,26 @@
           <t>-0.1161</t>
         </is>
       </c>
+      <c r="AH114" s="3" t="inlineStr">
+        <is>
+          <t>9.9942</t>
+        </is>
+      </c>
+      <c r="AI114" s="2" t="inlineStr">
+        <is>
+          <t>-0.2113</t>
+        </is>
+      </c>
+      <c r="AJ114" s="8" t="inlineStr">
+        <is>
+          <t>1.0588</t>
+        </is>
+      </c>
+      <c r="AK114" s="7" t="inlineStr">
+        <is>
+          <t>-2.4882</t>
+        </is>
+      </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
@@ -19677,6 +21957,26 @@
           <t>10.0515</t>
         </is>
       </c>
+      <c r="AH115" s="3" t="inlineStr">
+        <is>
+          <t>10.0703</t>
+        </is>
+      </c>
+      <c r="AI115" s="1" t="inlineStr">
+        <is>
+          <t>3.1915</t>
+        </is>
+      </c>
+      <c r="AJ115" s="6" t="inlineStr">
+        <is>
+          <t>-9.8969</t>
+        </is>
+      </c>
+      <c r="AK115" s="8" t="inlineStr">
+        <is>
+          <t>0.6865</t>
+        </is>
+      </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
@@ -19844,6 +22144,26 @@
           <t>10.0</t>
         </is>
       </c>
+      <c r="AH116" s="7" t="inlineStr">
+        <is>
+          <t>-1.5152</t>
+        </is>
+      </c>
+      <c r="AI116" s="4" t="inlineStr">
+        <is>
+          <t>-7.6923</t>
+        </is>
+      </c>
+      <c r="AJ116" s="7" t="inlineStr">
+        <is>
+          <t>-2.9167</t>
+        </is>
+      </c>
+      <c r="AK116" s="3" t="inlineStr">
+        <is>
+          <t>9.8712</t>
+        </is>
+      </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
@@ -20009,6 +22329,2270 @@
       <c r="AG117" s="3" t="inlineStr">
         <is>
           <t>10.0216</t>
+        </is>
+      </c>
+      <c r="AH117" s="8" t="inlineStr">
+        <is>
+          <t>0.6856</t>
+        </is>
+      </c>
+      <c r="AI117" s="1" t="inlineStr">
+        <is>
+          <t>3.0156</t>
+        </is>
+      </c>
+      <c r="AJ117" s="3" t="inlineStr">
+        <is>
+          <t>10.0094</t>
+        </is>
+      </c>
+      <c r="AK117" s="7" t="inlineStr">
+        <is>
+          <t>-4.3777</t>
+        </is>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>002108.sz</t>
+        </is>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>沧州明珠</t>
+        </is>
+      </c>
+      <c r="C118" s="4" t="inlineStr">
+        <is>
+          <t>-8.559</t>
+        </is>
+      </c>
+      <c r="D118" s="8" t="inlineStr">
+        <is>
+          <t>0.1185</t>
+        </is>
+      </c>
+      <c r="E118" s="7" t="inlineStr">
+        <is>
+          <t>-3.6686</t>
+        </is>
+      </c>
+      <c r="F118" s="8" t="inlineStr">
+        <is>
+          <t>1.1057</t>
+        </is>
+      </c>
+      <c r="G118" s="1" t="inlineStr">
+        <is>
+          <t>4.2527</t>
+        </is>
+      </c>
+      <c r="H118" s="2" t="inlineStr">
+        <is>
+          <t>-0.9324</t>
+        </is>
+      </c>
+      <c r="I118" s="7" t="inlineStr">
+        <is>
+          <t>-2.4706</t>
+        </is>
+      </c>
+      <c r="J118" s="1" t="inlineStr">
+        <is>
+          <t>2.2919</t>
+        </is>
+      </c>
+      <c r="K118" s="7" t="inlineStr">
+        <is>
+          <t>-1.8868</t>
+        </is>
+      </c>
+      <c r="L118" s="3" t="inlineStr">
+        <is>
+          <t>9.976</t>
+        </is>
+      </c>
+      <c r="M118" s="8" t="inlineStr">
+        <is>
+          <t>0.6557</t>
+        </is>
+      </c>
+      <c r="N118" s="7" t="inlineStr">
+        <is>
+          <t>-3.1488</t>
+        </is>
+      </c>
+      <c r="O118" s="4" t="inlineStr">
+        <is>
+          <t>-5.3812</t>
+        </is>
+      </c>
+      <c r="P118" s="7" t="inlineStr">
+        <is>
+          <t>-3.3175</t>
+        </is>
+      </c>
+      <c r="Q118" s="7" t="inlineStr">
+        <is>
+          <t>-3.0637</t>
+        </is>
+      </c>
+      <c r="R118" s="7" t="inlineStr">
+        <is>
+          <t>-3.0341</t>
+        </is>
+      </c>
+      <c r="S118" s="4" t="inlineStr">
+        <is>
+          <t>-8.3442</t>
+        </is>
+      </c>
+      <c r="T118" s="1" t="inlineStr">
+        <is>
+          <t>2.845</t>
+        </is>
+      </c>
+      <c r="U118" s="7" t="inlineStr">
+        <is>
+          <t>-3.5961</t>
+        </is>
+      </c>
+      <c r="V118" s="1" t="inlineStr">
+        <is>
+          <t>4.3042</t>
+        </is>
+      </c>
+      <c r="W118" s="1" t="inlineStr">
+        <is>
+          <t>1.5131</t>
+        </is>
+      </c>
+      <c r="X118" s="2" t="inlineStr">
+        <is>
+          <t>-0.542</t>
+        </is>
+      </c>
+      <c r="Y118" s="7" t="inlineStr">
+        <is>
+          <t>-3.1335</t>
+        </is>
+      </c>
+      <c r="Z118" s="1" t="inlineStr">
+        <is>
+          <t>1.5471</t>
+        </is>
+      </c>
+      <c r="AA118" s="8" t="inlineStr">
+        <is>
+          <t>1.108</t>
+        </is>
+      </c>
+      <c r="AB118" s="7" t="inlineStr">
+        <is>
+          <t>-2.3288</t>
+        </is>
+      </c>
+      <c r="AC118" s="8" t="inlineStr">
+        <is>
+          <t>1.4025</t>
+        </is>
+      </c>
+      <c r="AD118" s="5" t="inlineStr">
+        <is>
+          <t>5.9474</t>
+        </is>
+      </c>
+      <c r="AE118" s="1" t="inlineStr">
+        <is>
+          <t>1.5666</t>
+        </is>
+      </c>
+      <c r="AF118" s="7" t="inlineStr">
+        <is>
+          <t>-3.0848</t>
+        </is>
+      </c>
+      <c r="AG118" s="3" t="inlineStr">
+        <is>
+          <t>9.9469</t>
+        </is>
+      </c>
+      <c r="AH118" s="3" t="inlineStr">
+        <is>
+          <t>10.0121</t>
+        </is>
+      </c>
+      <c r="AI118" s="1" t="inlineStr">
+        <is>
+          <t>2.4123</t>
+        </is>
+      </c>
+      <c r="AJ118" s="5" t="inlineStr">
+        <is>
+          <t>7.9229</t>
+        </is>
+      </c>
+      <c r="AK118" s="7" t="inlineStr">
+        <is>
+          <t>-2.5794</t>
+        </is>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>300672.sz</t>
+        </is>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>国科微</t>
+        </is>
+      </c>
+      <c r="C119" s="1" t="inlineStr">
+        <is>
+          <t>1.9882</t>
+        </is>
+      </c>
+      <c r="D119" s="4" t="inlineStr">
+        <is>
+          <t>-5.704</t>
+        </is>
+      </c>
+      <c r="E119" s="7" t="inlineStr">
+        <is>
+          <t>-4.0888</t>
+        </is>
+      </c>
+      <c r="F119" s="1" t="inlineStr">
+        <is>
+          <t>2.7383</t>
+        </is>
+      </c>
+      <c r="G119" s="8" t="inlineStr">
+        <is>
+          <t>0.1399</t>
+        </is>
+      </c>
+      <c r="H119" s="8" t="inlineStr">
+        <is>
+          <t>0.7993</t>
+        </is>
+      </c>
+      <c r="I119" s="7" t="inlineStr">
+        <is>
+          <t>-3.7105</t>
+        </is>
+      </c>
+      <c r="J119" s="1" t="inlineStr">
+        <is>
+          <t>4.2213</t>
+        </is>
+      </c>
+      <c r="K119" s="7" t="inlineStr">
+        <is>
+          <t>-2.1172</t>
+        </is>
+      </c>
+      <c r="L119" s="8" t="inlineStr">
+        <is>
+          <t>0.2821</t>
+        </is>
+      </c>
+      <c r="M119" s="8" t="inlineStr">
+        <is>
+          <t>0.2188</t>
+        </is>
+      </c>
+      <c r="N119" s="4" t="inlineStr">
+        <is>
+          <t>-7.1663</t>
+        </is>
+      </c>
+      <c r="O119" s="2" t="inlineStr">
+        <is>
+          <t>-0.6888</t>
+        </is>
+      </c>
+      <c r="P119" s="8" t="inlineStr">
+        <is>
+          <t>0.0254</t>
+        </is>
+      </c>
+      <c r="Q119" s="1" t="inlineStr">
+        <is>
+          <t>2.3169</t>
+        </is>
+      </c>
+      <c r="R119" s="5" t="inlineStr">
+        <is>
+          <t>6.0661</t>
+        </is>
+      </c>
+      <c r="S119" s="7" t="inlineStr">
+        <is>
+          <t>-3.0933</t>
+        </is>
+      </c>
+      <c r="T119" s="2" t="inlineStr">
+        <is>
+          <t>-1.2624</t>
+        </is>
+      </c>
+      <c r="U119" s="4" t="inlineStr">
+        <is>
+          <t>-8.5505</t>
+        </is>
+      </c>
+      <c r="V119" s="5" t="inlineStr">
+        <is>
+          <t>8.1033</t>
+        </is>
+      </c>
+      <c r="W119" s="7" t="inlineStr">
+        <is>
+          <t>-4.0198</t>
+        </is>
+      </c>
+      <c r="X119" s="7" t="inlineStr">
+        <is>
+          <t>-2.0082</t>
+        </is>
+      </c>
+      <c r="Y119" s="7" t="inlineStr">
+        <is>
+          <t>-4.7031</t>
+        </is>
+      </c>
+      <c r="Z119" s="1" t="inlineStr">
+        <is>
+          <t>4.5676</t>
+        </is>
+      </c>
+      <c r="AA119" s="7" t="inlineStr">
+        <is>
+          <t>-1.5644</t>
+        </is>
+      </c>
+      <c r="AB119" s="1" t="inlineStr">
+        <is>
+          <t>1.9196</t>
+        </is>
+      </c>
+      <c r="AC119" s="2" t="inlineStr">
+        <is>
+          <t>-0.1314</t>
+        </is>
+      </c>
+      <c r="AD119" s="2" t="inlineStr">
+        <is>
+          <t>-0.3246</t>
+        </is>
+      </c>
+      <c r="AE119" s="8" t="inlineStr">
+        <is>
+          <t>0.9593</t>
+        </is>
+      </c>
+      <c r="AF119" s="7" t="inlineStr">
+        <is>
+          <t>-1.8044</t>
+        </is>
+      </c>
+      <c r="AG119" s="3" t="inlineStr">
+        <is>
+          <t>20.0</t>
+        </is>
+      </c>
+      <c r="AH119" s="3" t="inlineStr">
+        <is>
+          <t>20.003</t>
+        </is>
+      </c>
+      <c r="AI119" s="5" t="inlineStr">
+        <is>
+          <t>6.2446</t>
+        </is>
+      </c>
+      <c r="AJ119" s="8" t="inlineStr">
+        <is>
+          <t>0.9632</t>
+        </is>
+      </c>
+      <c r="AK119" s="7" t="inlineStr">
+        <is>
+          <t>-4.2469</t>
+        </is>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>603922.sh</t>
+        </is>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>金鸿顺</t>
+        </is>
+      </c>
+      <c r="C120" s="7" t="inlineStr">
+        <is>
+          <t>-3.6898</t>
+        </is>
+      </c>
+      <c r="D120" s="7" t="inlineStr">
+        <is>
+          <t>-1.7768</t>
+        </is>
+      </c>
+      <c r="E120" s="2" t="inlineStr">
+        <is>
+          <t>-1.2436</t>
+        </is>
+      </c>
+      <c r="F120" s="5" t="inlineStr">
+        <is>
+          <t>7.842</t>
+        </is>
+      </c>
+      <c r="G120" s="7" t="inlineStr">
+        <is>
+          <t>-3.9278</t>
+        </is>
+      </c>
+      <c r="H120" s="7" t="inlineStr">
+        <is>
+          <t>-2.3757</t>
+        </is>
+      </c>
+      <c r="I120" s="8" t="inlineStr">
+        <is>
+          <t>1.245</t>
+        </is>
+      </c>
+      <c r="J120" s="7" t="inlineStr">
+        <is>
+          <t>-3.9687</t>
+        </is>
+      </c>
+      <c r="K120" s="2" t="inlineStr">
+        <is>
+          <t>-0.4657</t>
+        </is>
+      </c>
+      <c r="L120" s="8" t="inlineStr">
+        <is>
+          <t>0.117</t>
+        </is>
+      </c>
+      <c r="M120" s="7" t="inlineStr">
+        <is>
+          <t>-1.6355</t>
+        </is>
+      </c>
+      <c r="N120" s="7" t="inlineStr">
+        <is>
+          <t>-4.3349</t>
+        </is>
+      </c>
+      <c r="O120" s="5" t="inlineStr">
+        <is>
+          <t>5.897</t>
+        </is>
+      </c>
+      <c r="P120" s="3" t="inlineStr">
+        <is>
+          <t>10.0234</t>
+        </is>
+      </c>
+      <c r="Q120" s="8" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="R120" s="8" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="S120" s="8" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="T120" s="3" t="inlineStr">
+        <is>
+          <t>10.016</t>
+        </is>
+      </c>
+      <c r="U120" s="6" t="inlineStr">
+        <is>
+          <t>-9.9758</t>
+        </is>
+      </c>
+      <c r="V120" s="4" t="inlineStr">
+        <is>
+          <t>-5.8096</t>
+        </is>
+      </c>
+      <c r="W120" s="3" t="inlineStr">
+        <is>
+          <t>9.9943</t>
+        </is>
+      </c>
+      <c r="X120" s="3" t="inlineStr">
+        <is>
+          <t>10.0208</t>
+        </is>
+      </c>
+      <c r="Y120" s="1" t="inlineStr">
+        <is>
+          <t>3.0675</t>
+        </is>
+      </c>
+      <c r="Z120" s="5" t="inlineStr">
+        <is>
+          <t>5.9066</t>
+        </is>
+      </c>
+      <c r="AA120" s="2" t="inlineStr">
+        <is>
+          <t>-0.4323</t>
+        </is>
+      </c>
+      <c r="AB120" s="8" t="inlineStr">
+        <is>
+          <t>1.0421</t>
+        </is>
+      </c>
+      <c r="AC120" s="5" t="inlineStr">
+        <is>
+          <t>6.0593</t>
+        </is>
+      </c>
+      <c r="AD120" s="7" t="inlineStr">
+        <is>
+          <t>-2.1475</t>
+        </is>
+      </c>
+      <c r="AE120" s="8" t="inlineStr">
+        <is>
+          <t>0.1242</t>
+        </is>
+      </c>
+      <c r="AF120" s="1" t="inlineStr">
+        <is>
+          <t>3.7634</t>
+        </is>
+      </c>
+      <c r="AG120" s="3" t="inlineStr">
+        <is>
+          <t>10.004</t>
+        </is>
+      </c>
+      <c r="AH120" s="3" t="inlineStr">
+        <is>
+          <t>10.0</t>
+        </is>
+      </c>
+      <c r="AI120" s="3" t="inlineStr">
+        <is>
+          <t>10.0132</t>
+        </is>
+      </c>
+      <c r="AJ120" s="3" t="inlineStr">
+        <is>
+          <t>10.0</t>
+        </is>
+      </c>
+      <c r="AK120" s="6" t="inlineStr">
+        <is>
+          <t>-9.9891</t>
+        </is>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>605286.sh</t>
+        </is>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>同力日升</t>
+        </is>
+      </c>
+      <c r="C121" s="1" t="inlineStr">
+        <is>
+          <t>1.9978</t>
+        </is>
+      </c>
+      <c r="D121" s="2" t="inlineStr">
+        <is>
+          <t>-0.1588</t>
+        </is>
+      </c>
+      <c r="E121" s="2" t="inlineStr">
+        <is>
+          <t>-1.4316</t>
+        </is>
+      </c>
+      <c r="F121" s="2" t="inlineStr">
+        <is>
+          <t>-0.0538</t>
+        </is>
+      </c>
+      <c r="G121" s="8" t="inlineStr">
+        <is>
+          <t>0.6997</t>
+        </is>
+      </c>
+      <c r="H121" s="8" t="inlineStr">
+        <is>
+          <t>0.2138</t>
+        </is>
+      </c>
+      <c r="I121" s="2" t="inlineStr">
+        <is>
+          <t>-1.2267</t>
+        </is>
+      </c>
+      <c r="J121" s="7" t="inlineStr">
+        <is>
+          <t>-2.8078</t>
+        </is>
+      </c>
+      <c r="K121" s="2" t="inlineStr">
+        <is>
+          <t>-0.3333</t>
+        </is>
+      </c>
+      <c r="L121" s="2" t="inlineStr">
+        <is>
+          <t>-1.4493</t>
+        </is>
+      </c>
+      <c r="M121" s="8" t="inlineStr">
+        <is>
+          <t>1.1878</t>
+        </is>
+      </c>
+      <c r="N121" s="2" t="inlineStr">
+        <is>
+          <t>-1.0061</t>
+        </is>
+      </c>
+      <c r="O121" s="8" t="inlineStr">
+        <is>
+          <t>1.1858</t>
+        </is>
+      </c>
+      <c r="P121" s="1" t="inlineStr">
+        <is>
+          <t>2.4554</t>
+        </is>
+      </c>
+      <c r="Q121" s="2" t="inlineStr">
+        <is>
+          <t>-0.4902</t>
+        </is>
+      </c>
+      <c r="R121" s="2" t="inlineStr">
+        <is>
+          <t>-0.8758</t>
+        </is>
+      </c>
+      <c r="S121" s="2" t="inlineStr">
+        <is>
+          <t>-0.8835</t>
+        </is>
+      </c>
+      <c r="T121" s="2" t="inlineStr">
+        <is>
+          <t>-1.1142</t>
+        </is>
+      </c>
+      <c r="U121" s="7" t="inlineStr">
+        <is>
+          <t>-4.5634</t>
+        </is>
+      </c>
+      <c r="V121" s="5" t="inlineStr">
+        <is>
+          <t>8.0283</t>
+        </is>
+      </c>
+      <c r="W121" s="8" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="X121" s="8" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="Y121" s="8" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="Z121" s="8" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="AA121" s="8" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="AB121" s="8" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="AC121" s="8" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="AD121" s="8" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="AE121" s="8" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="AF121" s="8" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="AG121" s="3" t="inlineStr">
+        <is>
+          <t>10.0</t>
+        </is>
+      </c>
+      <c r="AH121" s="3" t="inlineStr">
+        <is>
+          <t>9.9851</t>
+        </is>
+      </c>
+      <c r="AI121" s="3" t="inlineStr">
+        <is>
+          <t>9.9819</t>
+        </is>
+      </c>
+      <c r="AJ121" s="3" t="inlineStr">
+        <is>
+          <t>10.0205</t>
+        </is>
+      </c>
+      <c r="AK121" s="1" t="inlineStr">
+        <is>
+          <t>4.33</t>
+        </is>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>603683.sh</t>
+        </is>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>晶华新材</t>
+        </is>
+      </c>
+      <c r="C122" s="1" t="inlineStr">
+        <is>
+          <t>2.1152</t>
+        </is>
+      </c>
+      <c r="D122" s="2" t="inlineStr">
+        <is>
+          <t>-0.8571</t>
+        </is>
+      </c>
+      <c r="E122" s="4" t="inlineStr">
+        <is>
+          <t>-5.0432</t>
+        </is>
+      </c>
+      <c r="F122" s="5" t="inlineStr">
+        <is>
+          <t>8.4977</t>
+        </is>
+      </c>
+      <c r="G122" s="2" t="inlineStr">
+        <is>
+          <t>-0.8392</t>
+        </is>
+      </c>
+      <c r="H122" s="7" t="inlineStr">
+        <is>
+          <t>-3.3145</t>
+        </is>
+      </c>
+      <c r="I122" s="7" t="inlineStr">
+        <is>
+          <t>-2.407</t>
+        </is>
+      </c>
+      <c r="J122" s="7" t="inlineStr">
+        <is>
+          <t>-4.1854</t>
+        </is>
+      </c>
+      <c r="K122" s="8" t="inlineStr">
+        <is>
+          <t>1.248</t>
+        </is>
+      </c>
+      <c r="L122" s="7" t="inlineStr">
+        <is>
+          <t>-3.5439</t>
+        </is>
+      </c>
+      <c r="M122" s="1" t="inlineStr">
+        <is>
+          <t>3.5144</t>
+        </is>
+      </c>
+      <c r="N122" s="2" t="inlineStr">
+        <is>
+          <t>-1.2346</t>
+        </is>
+      </c>
+      <c r="O122" s="1" t="inlineStr">
+        <is>
+          <t>1.9531</t>
+        </is>
+      </c>
+      <c r="P122" s="4" t="inlineStr">
+        <is>
+          <t>-6.2835</t>
+        </is>
+      </c>
+      <c r="Q122" s="8" t="inlineStr">
+        <is>
+          <t>0.3271</t>
+        </is>
+      </c>
+      <c r="R122" s="4" t="inlineStr">
+        <is>
+          <t>-5.1345</t>
+        </is>
+      </c>
+      <c r="S122" s="7" t="inlineStr">
+        <is>
+          <t>-2.7491</t>
+        </is>
+      </c>
+      <c r="T122" s="8" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="U122" s="7" t="inlineStr">
+        <is>
+          <t>-3.7786</t>
+        </is>
+      </c>
+      <c r="V122" s="1" t="inlineStr">
+        <is>
+          <t>3.5616</t>
+        </is>
+      </c>
+      <c r="W122" s="2" t="inlineStr">
+        <is>
+          <t>-1.3228</t>
+        </is>
+      </c>
+      <c r="X122" s="1" t="inlineStr">
+        <is>
+          <t>2.5916</t>
+        </is>
+      </c>
+      <c r="Y122" s="4" t="inlineStr">
+        <is>
+          <t>-5.0523</t>
+        </is>
+      </c>
+      <c r="Z122" s="1" t="inlineStr">
+        <is>
+          <t>3.0275</t>
+        </is>
+      </c>
+      <c r="AA122" s="1" t="inlineStr">
+        <is>
+          <t>1.959</t>
+        </is>
+      </c>
+      <c r="AB122" s="2" t="inlineStr">
+        <is>
+          <t>-0.6987</t>
+        </is>
+      </c>
+      <c r="AC122" s="8" t="inlineStr">
+        <is>
+          <t>0.7036</t>
+        </is>
+      </c>
+      <c r="AD122" s="2" t="inlineStr">
+        <is>
+          <t>-1.2227</t>
+        </is>
+      </c>
+      <c r="AE122" s="1" t="inlineStr">
+        <is>
+          <t>1.9452</t>
+        </is>
+      </c>
+      <c r="AF122" s="2" t="inlineStr">
+        <is>
+          <t>-1.1275</t>
+        </is>
+      </c>
+      <c r="AG122" s="1" t="inlineStr">
+        <is>
+          <t>3.1579</t>
+        </is>
+      </c>
+      <c r="AH122" s="1" t="inlineStr">
+        <is>
+          <t>3.9116</t>
+        </is>
+      </c>
+      <c r="AI122" s="3" t="inlineStr">
+        <is>
+          <t>9.9836</t>
+        </is>
+      </c>
+      <c r="AJ122" s="3" t="inlineStr">
+        <is>
+          <t>9.9702</t>
+        </is>
+      </c>
+      <c r="AK122" s="3" t="inlineStr">
+        <is>
+          <t>10.0135</t>
+        </is>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>603693.sh</t>
+        </is>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>江苏新能</t>
+        </is>
+      </c>
+      <c r="C123" s="7" t="inlineStr">
+        <is>
+          <t>-2.9603</t>
+        </is>
+      </c>
+      <c r="D123" s="3" t="inlineStr">
+        <is>
+          <t>10.0061</t>
+        </is>
+      </c>
+      <c r="E123" s="1" t="inlineStr">
+        <is>
+          <t>2.0521</t>
+        </is>
+      </c>
+      <c r="F123" s="1" t="inlineStr">
+        <is>
+          <t>1.5761</t>
+        </is>
+      </c>
+      <c r="G123" s="1" t="inlineStr">
+        <is>
+          <t>2.1937</t>
+        </is>
+      </c>
+      <c r="H123" s="8" t="inlineStr">
+        <is>
+          <t>0.6283</t>
+        </is>
+      </c>
+      <c r="I123" s="7" t="inlineStr">
+        <is>
+          <t>-3.486</t>
+        </is>
+      </c>
+      <c r="J123" s="2" t="inlineStr">
+        <is>
+          <t>-0.3774</t>
+        </is>
+      </c>
+      <c r="K123" s="5" t="inlineStr">
+        <is>
+          <t>6.2771</t>
+        </is>
+      </c>
+      <c r="L123" s="4" t="inlineStr">
+        <is>
+          <t>-7.0774</t>
+        </is>
+      </c>
+      <c r="M123" s="3" t="inlineStr">
+        <is>
+          <t>10.0274</t>
+        </is>
+      </c>
+      <c r="N123" s="1" t="inlineStr">
+        <is>
+          <t>4.2331</t>
+        </is>
+      </c>
+      <c r="O123" s="5" t="inlineStr">
+        <is>
+          <t>6.5456</t>
+        </is>
+      </c>
+      <c r="P123" s="3" t="inlineStr">
+        <is>
+          <t>10.0</t>
+        </is>
+      </c>
+      <c r="Q123" s="5" t="inlineStr">
+        <is>
+          <t>6.3596</t>
+        </is>
+      </c>
+      <c r="R123" s="3" t="inlineStr">
+        <is>
+          <t>10.0038</t>
+        </is>
+      </c>
+      <c r="S123" s="4" t="inlineStr">
+        <is>
+          <t>-5.4007</t>
+        </is>
+      </c>
+      <c r="T123" s="1" t="inlineStr">
+        <is>
+          <t>3.0571</t>
+        </is>
+      </c>
+      <c r="U123" s="6" t="inlineStr">
+        <is>
+          <t>-10.0071</t>
+        </is>
+      </c>
+      <c r="V123" s="5" t="inlineStr">
+        <is>
+          <t>8.7371</t>
+        </is>
+      </c>
+      <c r="W123" s="4" t="inlineStr">
+        <is>
+          <t>-7.5968</t>
+        </is>
+      </c>
+      <c r="X123" s="7" t="inlineStr">
+        <is>
+          <t>-4.7036</t>
+        </is>
+      </c>
+      <c r="Y123" s="7" t="inlineStr">
+        <is>
+          <t>-1.9494</t>
+        </is>
+      </c>
+      <c r="Z123" s="4" t="inlineStr">
+        <is>
+          <t>-7.5719</t>
+        </is>
+      </c>
+      <c r="AA123" s="1" t="inlineStr">
+        <is>
+          <t>2.5629</t>
+        </is>
+      </c>
+      <c r="AB123" s="2" t="inlineStr">
+        <is>
+          <t>-0.6693</t>
+        </is>
+      </c>
+      <c r="AC123" s="3" t="inlineStr">
+        <is>
+          <t>10.018</t>
+        </is>
+      </c>
+      <c r="AD123" s="1" t="inlineStr">
+        <is>
+          <t>4.7366</t>
+        </is>
+      </c>
+      <c r="AE123" s="1" t="inlineStr">
+        <is>
+          <t>4.6784</t>
+        </is>
+      </c>
+      <c r="AF123" s="7" t="inlineStr">
+        <is>
+          <t>-4.0968</t>
+        </is>
+      </c>
+      <c r="AG123" s="7" t="inlineStr">
+        <is>
+          <t>-3.068</t>
+        </is>
+      </c>
+      <c r="AH123" s="5" t="inlineStr">
+        <is>
+          <t>7.0513</t>
+        </is>
+      </c>
+      <c r="AI123" s="3" t="inlineStr">
+        <is>
+          <t>9.9925</t>
+        </is>
+      </c>
+      <c r="AJ123" s="3" t="inlineStr">
+        <is>
+          <t>10.0034</t>
+        </is>
+      </c>
+      <c r="AK123" s="4" t="inlineStr">
+        <is>
+          <t>-8.1039</t>
+        </is>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>002805.sz</t>
+        </is>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>丰元股份</t>
+        </is>
+      </c>
+      <c r="C124" s="7" t="inlineStr">
+        <is>
+          <t>-3.0758</t>
+        </is>
+      </c>
+      <c r="D124" s="8" t="inlineStr">
+        <is>
+          <t>0.7212</t>
+        </is>
+      </c>
+      <c r="E124" s="1" t="inlineStr">
+        <is>
+          <t>3.473</t>
+        </is>
+      </c>
+      <c r="F124" s="7" t="inlineStr">
+        <is>
+          <t>-4.8789</t>
+        </is>
+      </c>
+      <c r="G124" s="1" t="inlineStr">
+        <is>
+          <t>3.6741</t>
+        </is>
+      </c>
+      <c r="H124" s="3" t="inlineStr">
+        <is>
+          <t>10.0</t>
+        </is>
+      </c>
+      <c r="I124" s="7" t="inlineStr">
+        <is>
+          <t>-1.9139</t>
+        </is>
+      </c>
+      <c r="J124" s="7" t="inlineStr">
+        <is>
+          <t>-4.5854</t>
+        </is>
+      </c>
+      <c r="K124" s="8" t="inlineStr">
+        <is>
+          <t>0.5112</t>
+        </is>
+      </c>
+      <c r="L124" s="1" t="inlineStr">
+        <is>
+          <t>4.6796</t>
+        </is>
+      </c>
+      <c r="M124" s="8" t="inlineStr">
+        <is>
+          <t>0.7451</t>
+        </is>
+      </c>
+      <c r="N124" s="4" t="inlineStr">
+        <is>
+          <t>-5.8199</t>
+        </is>
+      </c>
+      <c r="O124" s="7" t="inlineStr">
+        <is>
+          <t>-2.5265</t>
+        </is>
+      </c>
+      <c r="P124" s="7" t="inlineStr">
+        <is>
+          <t>-2.627</t>
+        </is>
+      </c>
+      <c r="Q124" s="7" t="inlineStr">
+        <is>
+          <t>-2.8058</t>
+        </is>
+      </c>
+      <c r="R124" s="4" t="inlineStr">
+        <is>
+          <t>-5.8845</t>
+        </is>
+      </c>
+      <c r="S124" s="7" t="inlineStr">
+        <is>
+          <t>-4.5222</t>
+        </is>
+      </c>
+      <c r="T124" s="2" t="inlineStr">
+        <is>
+          <t>-1.4827</t>
+        </is>
+      </c>
+      <c r="U124" s="7" t="inlineStr">
+        <is>
+          <t>-3.7625</t>
+        </is>
+      </c>
+      <c r="V124" s="1" t="inlineStr">
+        <is>
+          <t>2.954</t>
+        </is>
+      </c>
+      <c r="W124" s="8" t="inlineStr">
+        <is>
+          <t>1.3924</t>
+        </is>
+      </c>
+      <c r="X124" s="7" t="inlineStr">
+        <is>
+          <t>-1.831</t>
+        </is>
+      </c>
+      <c r="Y124" s="7" t="inlineStr">
+        <is>
+          <t>-4.451</t>
+        </is>
+      </c>
+      <c r="Z124" s="7" t="inlineStr">
+        <is>
+          <t>-1.819</t>
+        </is>
+      </c>
+      <c r="AA124" s="5" t="inlineStr">
+        <is>
+          <t>5.7388</t>
+        </is>
+      </c>
+      <c r="AB124" s="2" t="inlineStr">
+        <is>
+          <t>-1.3675</t>
+        </is>
+      </c>
+      <c r="AC124" s="1" t="inlineStr">
+        <is>
+          <t>1.5598</t>
+        </is>
+      </c>
+      <c r="AD124" s="1" t="inlineStr">
+        <is>
+          <t>2.8584</t>
+        </is>
+      </c>
+      <c r="AE124" s="8" t="inlineStr">
+        <is>
+          <t>0.871</t>
+        </is>
+      </c>
+      <c r="AF124" s="8" t="inlineStr">
+        <is>
+          <t>1.2336</t>
+        </is>
+      </c>
+      <c r="AG124" s="2" t="inlineStr">
+        <is>
+          <t>-1.4622</t>
+        </is>
+      </c>
+      <c r="AH124" s="5" t="inlineStr">
+        <is>
+          <t>7.5845</t>
+        </is>
+      </c>
+      <c r="AI124" s="3" t="inlineStr">
+        <is>
+          <t>10.0</t>
+        </is>
+      </c>
+      <c r="AJ124" s="5" t="inlineStr">
+        <is>
+          <t>6.9314</t>
+        </is>
+      </c>
+      <c r="AK124" s="3" t="inlineStr">
+        <is>
+          <t>10.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>002815.sz</t>
+        </is>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>崇达技术</t>
+        </is>
+      </c>
+      <c r="C125" s="1" t="inlineStr">
+        <is>
+          <t>1.626</t>
+        </is>
+      </c>
+      <c r="D125" s="2" t="inlineStr">
+        <is>
+          <t>-0.48</t>
+        </is>
+      </c>
+      <c r="E125" s="8" t="inlineStr">
+        <is>
+          <t>1.2058</t>
+        </is>
+      </c>
+      <c r="F125" s="1" t="inlineStr">
+        <is>
+          <t>1.668</t>
+        </is>
+      </c>
+      <c r="G125" s="8" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="H125" s="8" t="inlineStr">
+        <is>
+          <t>0.3906</t>
+        </is>
+      </c>
+      <c r="I125" s="2" t="inlineStr">
+        <is>
+          <t>-0.7782</t>
+        </is>
+      </c>
+      <c r="J125" s="8" t="inlineStr">
+        <is>
+          <t>0.0784</t>
+        </is>
+      </c>
+      <c r="K125" s="8" t="inlineStr">
+        <is>
+          <t>0.5486</t>
+        </is>
+      </c>
+      <c r="L125" s="7" t="inlineStr">
+        <is>
+          <t>-2.0265</t>
+        </is>
+      </c>
+      <c r="M125" s="8" t="inlineStr">
+        <is>
+          <t>0.3182</t>
+        </is>
+      </c>
+      <c r="N125" s="7" t="inlineStr">
+        <is>
+          <t>-2.2998</t>
+        </is>
+      </c>
+      <c r="O125" s="2" t="inlineStr">
+        <is>
+          <t>-0.3247</t>
+        </is>
+      </c>
+      <c r="P125" s="2" t="inlineStr">
+        <is>
+          <t>-1.3844</t>
+        </is>
+      </c>
+      <c r="Q125" s="8" t="inlineStr">
+        <is>
+          <t>1.4038</t>
+        </is>
+      </c>
+      <c r="R125" s="8" t="inlineStr">
+        <is>
+          <t>0.2443</t>
+        </is>
+      </c>
+      <c r="S125" s="7" t="inlineStr">
+        <is>
+          <t>-2.8432</t>
+        </is>
+      </c>
+      <c r="T125" s="2" t="inlineStr">
+        <is>
+          <t>-0.2508</t>
+        </is>
+      </c>
+      <c r="U125" s="8" t="inlineStr">
+        <is>
+          <t>1.425</t>
+        </is>
+      </c>
+      <c r="V125" s="2" t="inlineStr">
+        <is>
+          <t>-0.2479</t>
+        </is>
+      </c>
+      <c r="W125" s="8" t="inlineStr">
+        <is>
+          <t>1.4085</t>
+        </is>
+      </c>
+      <c r="X125" s="8" t="inlineStr">
+        <is>
+          <t>0.2451</t>
+        </is>
+      </c>
+      <c r="Y125" s="2" t="inlineStr">
+        <is>
+          <t>-1.141</t>
+        </is>
+      </c>
+      <c r="Z125" s="8" t="inlineStr">
+        <is>
+          <t>0.5771</t>
+        </is>
+      </c>
+      <c r="AA125" s="8" t="inlineStr">
+        <is>
+          <t>0.4098</t>
+        </is>
+      </c>
+      <c r="AB125" s="2" t="inlineStr">
+        <is>
+          <t>-1.3878</t>
+        </is>
+      </c>
+      <c r="AC125" s="2" t="inlineStr">
+        <is>
+          <t>-1.2417</t>
+        </is>
+      </c>
+      <c r="AD125" s="8" t="inlineStr">
+        <is>
+          <t>1.0059</t>
+        </is>
+      </c>
+      <c r="AE125" s="2" t="inlineStr">
+        <is>
+          <t>-1.0788</t>
+        </is>
+      </c>
+      <c r="AF125" s="2" t="inlineStr">
+        <is>
+          <t>-1.3423</t>
+        </is>
+      </c>
+      <c r="AG125" s="8" t="inlineStr">
+        <is>
+          <t>0.3401</t>
+        </is>
+      </c>
+      <c r="AH125" s="2" t="inlineStr">
+        <is>
+          <t>-0.8475</t>
+        </is>
+      </c>
+      <c r="AI125" s="8" t="inlineStr">
+        <is>
+          <t>0.3419</t>
+        </is>
+      </c>
+      <c r="AJ125" s="7" t="inlineStr">
+        <is>
+          <t>-2.8961</t>
+        </is>
+      </c>
+      <c r="AK125" s="3" t="inlineStr">
+        <is>
+          <t>10.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>002882.sz</t>
+        </is>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>金龙羽</t>
+        </is>
+      </c>
+      <c r="C126" s="2" t="inlineStr">
+        <is>
+          <t>-0.6966</t>
+        </is>
+      </c>
+      <c r="D126" s="1" t="inlineStr">
+        <is>
+          <t>1.8706</t>
+        </is>
+      </c>
+      <c r="E126" s="5" t="inlineStr">
+        <is>
+          <t>6.4269</t>
+        </is>
+      </c>
+      <c r="F126" s="4" t="inlineStr">
+        <is>
+          <t>-8.9863</t>
+        </is>
+      </c>
+      <c r="G126" s="2" t="inlineStr">
+        <is>
+          <t>-1.3428</t>
+        </is>
+      </c>
+      <c r="H126" s="7" t="inlineStr">
+        <is>
+          <t>-1.5212</t>
+        </is>
+      </c>
+      <c r="I126" s="8" t="inlineStr">
+        <is>
+          <t>1.4634</t>
+        </is>
+      </c>
+      <c r="J126" s="2" t="inlineStr">
+        <is>
+          <t>-0.641</t>
+        </is>
+      </c>
+      <c r="K126" s="7" t="inlineStr">
+        <is>
+          <t>-4.5968</t>
+        </is>
+      </c>
+      <c r="L126" s="8" t="inlineStr">
+        <is>
+          <t>1.3525</t>
+        </is>
+      </c>
+      <c r="M126" s="8" t="inlineStr">
+        <is>
+          <t>1.251</t>
+        </is>
+      </c>
+      <c r="N126" s="3" t="inlineStr">
+        <is>
+          <t>9.9671</t>
+        </is>
+      </c>
+      <c r="O126" s="4" t="inlineStr">
+        <is>
+          <t>-8.015</t>
+        </is>
+      </c>
+      <c r="P126" s="4" t="inlineStr">
+        <is>
+          <t>-5.8632</t>
+        </is>
+      </c>
+      <c r="Q126" s="8" t="inlineStr">
+        <is>
+          <t>0.173</t>
+        </is>
+      </c>
+      <c r="R126" s="7" t="inlineStr">
+        <is>
+          <t>-2.2453</t>
+        </is>
+      </c>
+      <c r="S126" s="4" t="inlineStr">
+        <is>
+          <t>-7.2438</t>
+        </is>
+      </c>
+      <c r="T126" s="1" t="inlineStr">
+        <is>
+          <t>1.7143</t>
+        </is>
+      </c>
+      <c r="U126" s="8" t="inlineStr">
+        <is>
+          <t>0.8427</t>
+        </is>
+      </c>
+      <c r="V126" s="1" t="inlineStr">
+        <is>
+          <t>2.3213</t>
+        </is>
+      </c>
+      <c r="W126" s="7" t="inlineStr">
+        <is>
+          <t>-2.9946</t>
+        </is>
+      </c>
+      <c r="X126" s="8" t="inlineStr">
+        <is>
+          <t>0.6548</t>
+        </is>
+      </c>
+      <c r="Y126" s="7" t="inlineStr">
+        <is>
+          <t>-4.7398</t>
+        </is>
+      </c>
+      <c r="Z126" s="1" t="inlineStr">
+        <is>
+          <t>2.3415</t>
+        </is>
+      </c>
+      <c r="AA126" s="1" t="inlineStr">
+        <is>
+          <t>1.5253</t>
+        </is>
+      </c>
+      <c r="AB126" s="7" t="inlineStr">
+        <is>
+          <t>-2.1596</t>
+        </is>
+      </c>
+      <c r="AC126" s="1" t="inlineStr">
+        <is>
+          <t>1.6315</t>
+        </is>
+      </c>
+      <c r="AD126" s="8" t="inlineStr">
+        <is>
+          <t>1.1331</t>
+        </is>
+      </c>
+      <c r="AE126" s="1" t="inlineStr">
+        <is>
+          <t>1.6807</t>
+        </is>
+      </c>
+      <c r="AF126" s="7" t="inlineStr">
+        <is>
+          <t>-2.2957</t>
+        </is>
+      </c>
+      <c r="AG126" s="7" t="inlineStr">
+        <is>
+          <t>-2.4436</t>
+        </is>
+      </c>
+      <c r="AH126" s="7" t="inlineStr">
+        <is>
+          <t>-3.2755</t>
+        </is>
+      </c>
+      <c r="AI126" s="5" t="inlineStr">
+        <is>
+          <t>8.3665</t>
+        </is>
+      </c>
+      <c r="AJ126" s="4" t="inlineStr">
+        <is>
+          <t>-7.3529</t>
+        </is>
+      </c>
+      <c r="AK126" s="3" t="inlineStr">
+        <is>
+          <t>10.0198</t>
+        </is>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>600556.sh</t>
+        </is>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>天下秀</t>
+        </is>
+      </c>
+      <c r="C127" s="1" t="inlineStr">
+        <is>
+          <t>2.6906</t>
+        </is>
+      </c>
+      <c r="D127" s="1" t="inlineStr">
+        <is>
+          <t>2.7293</t>
+        </is>
+      </c>
+      <c r="E127" s="2" t="inlineStr">
+        <is>
+          <t>-0.2125</t>
+        </is>
+      </c>
+      <c r="F127" s="1" t="inlineStr">
+        <is>
+          <t>1.7039</t>
+        </is>
+      </c>
+      <c r="G127" s="1" t="inlineStr">
+        <is>
+          <t>2.0942</t>
+        </is>
+      </c>
+      <c r="H127" s="2" t="inlineStr">
+        <is>
+          <t>-0.8205</t>
+        </is>
+      </c>
+      <c r="I127" s="7" t="inlineStr">
+        <is>
+          <t>-2.1717</t>
+        </is>
+      </c>
+      <c r="J127" s="1" t="inlineStr">
+        <is>
+          <t>4.5455</t>
+        </is>
+      </c>
+      <c r="K127" s="8" t="inlineStr">
+        <is>
+          <t>0.8089</t>
+        </is>
+      </c>
+      <c r="L127" s="7" t="inlineStr">
+        <is>
+          <t>-1.8054</t>
+        </is>
+      </c>
+      <c r="M127" s="7" t="inlineStr">
+        <is>
+          <t>-2.0429</t>
+        </is>
+      </c>
+      <c r="N127" s="4" t="inlineStr">
+        <is>
+          <t>-5.8394</t>
+        </is>
+      </c>
+      <c r="O127" s="2" t="inlineStr">
+        <is>
+          <t>-0.8859</t>
+        </is>
+      </c>
+      <c r="P127" s="2" t="inlineStr">
+        <is>
+          <t>-0.5587</t>
+        </is>
+      </c>
+      <c r="Q127" s="2" t="inlineStr">
+        <is>
+          <t>-0.1124</t>
+        </is>
+      </c>
+      <c r="R127" s="2" t="inlineStr">
+        <is>
+          <t>-0.5624</t>
+        </is>
+      </c>
+      <c r="S127" s="7" t="inlineStr">
+        <is>
+          <t>-2.3756</t>
+        </is>
+      </c>
+      <c r="T127" s="7" t="inlineStr">
+        <is>
+          <t>-2.3175</t>
+        </is>
+      </c>
+      <c r="U127" s="7" t="inlineStr">
+        <is>
+          <t>-3.3215</t>
+        </is>
+      </c>
+      <c r="V127" s="8" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="W127" s="1" t="inlineStr">
+        <is>
+          <t>1.8405</t>
+        </is>
+      </c>
+      <c r="X127" s="8" t="inlineStr">
+        <is>
+          <t>0.1205</t>
+        </is>
+      </c>
+      <c r="Y127" s="2" t="inlineStr">
+        <is>
+          <t>-0.4813</t>
+        </is>
+      </c>
+      <c r="Z127" s="2" t="inlineStr">
+        <is>
+          <t>-0.1209</t>
+        </is>
+      </c>
+      <c r="AA127" s="8" t="inlineStr">
+        <is>
+          <t>0.1211</t>
+        </is>
+      </c>
+      <c r="AB127" s="2" t="inlineStr">
+        <is>
+          <t>-0.6046</t>
+        </is>
+      </c>
+      <c r="AC127" s="2" t="inlineStr">
+        <is>
+          <t>-0.7299</t>
+        </is>
+      </c>
+      <c r="AD127" s="8" t="inlineStr">
+        <is>
+          <t>0.4902</t>
+        </is>
+      </c>
+      <c r="AE127" s="8" t="inlineStr">
+        <is>
+          <t>0.6098</t>
+        </is>
+      </c>
+      <c r="AF127" s="1" t="inlineStr">
+        <is>
+          <t>1.9394</t>
+        </is>
+      </c>
+      <c r="AG127" s="1" t="inlineStr">
+        <is>
+          <t>4.1617</t>
+        </is>
+      </c>
+      <c r="AH127" s="8" t="inlineStr">
+        <is>
+          <t>1.1416</t>
+        </is>
+      </c>
+      <c r="AI127" s="7" t="inlineStr">
+        <is>
+          <t>-2.7088</t>
+        </is>
+      </c>
+      <c r="AJ127" s="8" t="inlineStr">
+        <is>
+          <t>1.2761</t>
+        </is>
+      </c>
+      <c r="AK127" s="3" t="inlineStr">
+        <is>
+          <t>9.9656</t>
+        </is>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>603283.sh</t>
+        </is>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>赛腾股份</t>
+        </is>
+      </c>
+      <c r="C128" s="7" t="inlineStr">
+        <is>
+          <t>-2.9651</t>
+        </is>
+      </c>
+      <c r="D128" s="8" t="inlineStr">
+        <is>
+          <t>0.4604</t>
+        </is>
+      </c>
+      <c r="E128" s="7" t="inlineStr">
+        <is>
+          <t>-2.0833</t>
+        </is>
+      </c>
+      <c r="F128" s="1" t="inlineStr">
+        <is>
+          <t>3.1915</t>
+        </is>
+      </c>
+      <c r="G128" s="8" t="inlineStr">
+        <is>
+          <t>0.6186</t>
+        </is>
+      </c>
+      <c r="H128" s="1" t="inlineStr">
+        <is>
+          <t>1.5164</t>
+        </is>
+      </c>
+      <c r="I128" s="7" t="inlineStr">
+        <is>
+          <t>-3.3105</t>
+        </is>
+      </c>
+      <c r="J128" s="2" t="inlineStr">
+        <is>
+          <t>-0.0835</t>
+        </is>
+      </c>
+      <c r="K128" s="8" t="inlineStr">
+        <is>
+          <t>0.7522</t>
+        </is>
+      </c>
+      <c r="L128" s="7" t="inlineStr">
+        <is>
+          <t>-2.0324</t>
+        </is>
+      </c>
+      <c r="M128" s="1" t="inlineStr">
+        <is>
+          <t>2.5402</t>
+        </is>
+      </c>
+      <c r="N128" s="7" t="inlineStr">
+        <is>
+          <t>-4.0462</t>
+        </is>
+      </c>
+      <c r="O128" s="7" t="inlineStr">
+        <is>
+          <t>-2.4957</t>
+        </is>
+      </c>
+      <c r="P128" s="7" t="inlineStr">
+        <is>
+          <t>-3.2657</t>
+        </is>
+      </c>
+      <c r="Q128" s="1" t="inlineStr">
+        <is>
+          <t>2.3266</t>
+        </is>
+      </c>
+      <c r="R128" s="7" t="inlineStr">
+        <is>
+          <t>-3.1208</t>
+        </is>
+      </c>
+      <c r="S128" s="7" t="inlineStr">
+        <is>
+          <t>-2.9913</t>
+        </is>
+      </c>
+      <c r="T128" s="8" t="inlineStr">
+        <is>
+          <t>1.1385</t>
+        </is>
+      </c>
+      <c r="U128" s="7" t="inlineStr">
+        <is>
+          <t>-3.3302</t>
+        </is>
+      </c>
+      <c r="V128" s="1" t="inlineStr">
+        <is>
+          <t>3.0568</t>
+        </is>
+      </c>
+      <c r="W128" s="1" t="inlineStr">
+        <is>
+          <t>2.5895</t>
+        </is>
+      </c>
+      <c r="X128" s="8" t="inlineStr">
+        <is>
+          <t>0.3212</t>
+        </is>
+      </c>
+      <c r="Y128" s="7" t="inlineStr">
+        <is>
+          <t>-2.4703</t>
+        </is>
+      </c>
+      <c r="Z128" s="1" t="inlineStr">
+        <is>
+          <t>1.6417</t>
+        </is>
+      </c>
+      <c r="AA128" s="8" t="inlineStr">
+        <is>
+          <t>1.4767</t>
+        </is>
+      </c>
+      <c r="AB128" s="8" t="inlineStr">
+        <is>
+          <t>1.0914</t>
+        </is>
+      </c>
+      <c r="AC128" s="1" t="inlineStr">
+        <is>
+          <t>1.7094</t>
+        </is>
+      </c>
+      <c r="AD128" s="2" t="inlineStr">
+        <is>
+          <t>-0.7961</t>
+        </is>
+      </c>
+      <c r="AE128" s="2" t="inlineStr">
+        <is>
+          <t>-0.5796</t>
+        </is>
+      </c>
+      <c r="AF128" s="7" t="inlineStr">
+        <is>
+          <t>-1.5247</t>
+        </is>
+      </c>
+      <c r="AG128" s="8" t="inlineStr">
+        <is>
+          <t>1.3661</t>
+        </is>
+      </c>
+      <c r="AH128" s="2" t="inlineStr">
+        <is>
+          <t>-1.2129</t>
+        </is>
+      </c>
+      <c r="AI128" s="8" t="inlineStr">
+        <is>
+          <t>1.0459</t>
+        </is>
+      </c>
+      <c r="AJ128" s="7" t="inlineStr">
+        <is>
+          <t>-3.5554</t>
+        </is>
+      </c>
+      <c r="AK128" s="3" t="inlineStr">
+        <is>
+          <t>9.986</t>
+        </is>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>300052.sz</t>
+        </is>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>中青宝</t>
+        </is>
+      </c>
+      <c r="C129" s="1" t="inlineStr">
+        <is>
+          <t>2.6316</t>
+        </is>
+      </c>
+      <c r="D129" s="7" t="inlineStr">
+        <is>
+          <t>-1.5873</t>
+        </is>
+      </c>
+      <c r="E129" s="8" t="inlineStr">
+        <is>
+          <t>0.2481</t>
+        </is>
+      </c>
+      <c r="F129" s="8" t="inlineStr">
+        <is>
+          <t>1.4851</t>
+        </is>
+      </c>
+      <c r="G129" s="3" t="inlineStr">
+        <is>
+          <t>20.0</t>
+        </is>
+      </c>
+      <c r="H129" s="3" t="inlineStr">
+        <is>
+          <t>20.0203</t>
+        </is>
+      </c>
+      <c r="I129" s="3" t="inlineStr">
+        <is>
+          <t>14.3099</t>
+        </is>
+      </c>
+      <c r="J129" s="3" t="inlineStr">
+        <is>
+          <t>9.7037</t>
+        </is>
+      </c>
+      <c r="K129" s="3" t="inlineStr">
+        <is>
+          <t>19.9865</t>
+        </is>
+      </c>
+      <c r="L129" s="5" t="inlineStr">
+        <is>
+          <t>6.0777</t>
+        </is>
+      </c>
+      <c r="M129" s="4" t="inlineStr">
+        <is>
+          <t>-5.0398</t>
+        </is>
+      </c>
+      <c r="N129" s="3" t="inlineStr">
+        <is>
+          <t>11.7318</t>
+        </is>
+      </c>
+      <c r="O129" s="4" t="inlineStr">
+        <is>
+          <t>-8.9</t>
+        </is>
+      </c>
+      <c r="P129" s="6" t="inlineStr">
+        <is>
+          <t>-10.2086</t>
+        </is>
+      </c>
+      <c r="Q129" s="4" t="inlineStr">
+        <is>
+          <t>-5.0733</t>
+        </is>
+      </c>
+      <c r="R129" s="5" t="inlineStr">
+        <is>
+          <t>7.6626</t>
+        </is>
+      </c>
+      <c r="S129" s="7" t="inlineStr">
+        <is>
+          <t>-3.8278</t>
+        </is>
+      </c>
+      <c r="T129" s="8" t="inlineStr">
+        <is>
+          <t>0.1866</t>
+        </is>
+      </c>
+      <c r="U129" s="6" t="inlineStr">
+        <is>
+          <t>-9.4351</t>
+        </is>
+      </c>
+      <c r="V129" s="1" t="inlineStr">
+        <is>
+          <t>3.2899</t>
+        </is>
+      </c>
+      <c r="W129" s="1" t="inlineStr">
+        <is>
+          <t>4.8441</t>
+        </is>
+      </c>
+      <c r="X129" s="5" t="inlineStr">
+        <is>
+          <t>6.519</t>
+        </is>
+      </c>
+      <c r="Y129" s="7" t="inlineStr">
+        <is>
+          <t>-4.4563</t>
+        </is>
+      </c>
+      <c r="Z129" s="8" t="inlineStr">
+        <is>
+          <t>1.2438</t>
+        </is>
+      </c>
+      <c r="AA129" s="4" t="inlineStr">
+        <is>
+          <t>-8.6609</t>
+        </is>
+      </c>
+      <c r="AB129" s="4" t="inlineStr">
+        <is>
+          <t>-5.2455</t>
+        </is>
+      </c>
+      <c r="AC129" s="1" t="inlineStr">
+        <is>
+          <t>2.9808</t>
+        </is>
+      </c>
+      <c r="AD129" s="1" t="inlineStr">
+        <is>
+          <t>3.377</t>
+        </is>
+      </c>
+      <c r="AE129" s="1" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="AF129" s="1" t="inlineStr">
+        <is>
+          <t>2.1795</t>
+        </is>
+      </c>
+      <c r="AG129" s="3" t="inlineStr">
+        <is>
+          <t>20.0125</t>
+        </is>
+      </c>
+      <c r="AH129" s="3" t="inlineStr">
+        <is>
+          <t>14.689</t>
+        </is>
+      </c>
+      <c r="AI129" s="6" t="inlineStr">
+        <is>
+          <t>-10.8933</t>
+        </is>
+      </c>
+      <c r="AJ129" s="7" t="inlineStr">
+        <is>
+          <t>-4.399</t>
+        </is>
+      </c>
+      <c r="AK129" s="7" t="inlineStr">
+        <is>
+          <t>-4.3339</t>
         </is>
       </c>
     </row>
